--- a/SVMK.xlsx
+++ b/SVMK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A1B7BA-80BF-8541-BC0B-9B87062914C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB228B-A3B7-C747-B81A-5FA3CC0A5EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23060" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41280" yWindow="-5560" windowWidth="33500" windowHeight="24740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>Q117</t>
   </si>
@@ -247,12 +247,6 @@
     <t>Q420</t>
   </si>
   <si>
-    <t>BADWILL</t>
-  </si>
-  <si>
-    <t>Intangibles per share</t>
-  </si>
-  <si>
     <t>Risk-free rate + market premium (opportunity cost)</t>
   </si>
   <si>
@@ -260,18 +254,6 @@
   </si>
   <si>
     <t>Net present value on future net income (terminal value)</t>
-  </si>
-  <si>
-    <t>RORC</t>
-  </si>
-  <si>
-    <t>PRR</t>
-  </si>
-  <si>
-    <t>Return on research capital</t>
-  </si>
-  <si>
-    <t>Price to R&amp;D ratio</t>
   </si>
   <si>
     <t>Products</t>
@@ -328,7 +310,10 @@
     <t>surveymonkey.com</t>
   </si>
   <si>
-    <t>87-90</t>
+    <t>2020-09-31</t>
+  </si>
+  <si>
+    <t>Q320</t>
   </si>
 </sst>
 </file>
@@ -442,7 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,9 +579,6 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -634,6 +616,12 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -667,7 +655,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -715,14 +703,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>245208</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>245208</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -739,8 +727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12496800" y="152400"/>
-          <a:ext cx="0" cy="9067800"/>
+          <a:off x="14254285" y="152400"/>
+          <a:ext cx="0" cy="9121531"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1030,13 +1018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GQ64"/>
+  <dimension ref="A1:GQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1046,11 +1034,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.15">
@@ -1058,16 +1046,16 @@
         <v>40</v>
       </c>
       <c r="C2" s="4">
-        <v>19.54</v>
-      </c>
-      <c r="D2" s="73">
-        <v>43971</v>
+        <v>26.54</v>
+      </c>
+      <c r="D2" s="72">
+        <v>44221</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="7">
-        <v>-5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="16"/>
       <c r="L2" s="2"/>
@@ -1080,17 +1068,17 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!N21</f>
-        <v>136.911</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>65</v>
+        <f>Reports!P21</f>
+        <v>141.03399999999999</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="7">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>59</v>
@@ -1098,30 +1086,30 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
-        <v>85</v>
+      <c r="A4" s="74" t="s">
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>2675.2409400000001</v>
-      </c>
-      <c r="D4" s="74"/>
+        <v>3743.0423599999995</v>
+      </c>
+      <c r="D4" s="73"/>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="7">
-        <f>6%</f>
-        <v>0.06</v>
+        <f>7%</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="20"/>
       <c r="L4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.15">
@@ -1129,21 +1117,21 @@
         <v>22</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!N33</f>
-        <v>-70</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>65</v>
+        <f>Reports!P33</f>
+        <v>-8</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,F26:GQ26)</f>
-        <v>4009.6637510420683</v>
+        <v>3654.4732872612267</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="20"/>
     </row>
@@ -1156,45 +1144,45 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>2745.2409400000001</v>
-      </c>
-      <c r="D6" s="74"/>
+        <v>3751.0423599999995</v>
+      </c>
+      <c r="D6" s="73"/>
       <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>3939.6637510420683</v>
+        <v>3646.4732872612267</v>
       </c>
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A7" s="75" t="s">
-        <v>83</v>
+      <c r="A7" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="49">
         <f>C6/C3</f>
-        <v>20.051281051193843</v>
-      </c>
-      <c r="D7" s="74"/>
+        <v>26.596723910546391</v>
+      </c>
+      <c r="D7" s="73"/>
       <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="46">
         <f>F6/C3</f>
-        <v>28.775363199758004</v>
+        <v>25.855278069552213</v>
       </c>
       <c r="G7" s="20">
         <f>F7/C2-1</f>
-        <v>0.47263885362118763</v>
+        <v>-2.5799620589592509E-2</v>
       </c>
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A8" s="77" t="s">
-        <v>84</v>
+      <c r="A8" s="76" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1619,164 +1607,164 @@
       <c r="DK11" s="42"/>
       <c r="DL11" s="42"/>
     </row>
-    <row r="12" spans="1:116" s="83" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84">
+    <row r="12" spans="1:116" s="82" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="83">
         <f>Reports!E5</f>
         <v>0.60607699999999998</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="83">
         <f>Reports!I5</f>
         <v>0.64672700000000005</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="83">
         <f>Reports!M5</f>
         <v>0.72092100000000003</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="83">
         <f>E12*1.1</f>
         <v>0.79301310000000014</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="83">
         <f t="shared" ref="G12:J12" si="1">F12*1.1</f>
         <v>0.87231441000000021</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="83">
         <f t="shared" si="1"/>
         <v>0.95954585100000034</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="83">
         <f t="shared" si="1"/>
         <v>1.0555004361000004</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="83">
         <f t="shared" si="1"/>
         <v>1.1610504797100005</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="84"/>
-      <c r="BM12" s="84"/>
-      <c r="BN12" s="84"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="84"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="84"/>
-      <c r="BS12" s="84"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="84"/>
-      <c r="BV12" s="84"/>
-      <c r="BW12" s="84"/>
-      <c r="BX12" s="84"/>
-      <c r="BY12" s="84"/>
-      <c r="BZ12" s="84"/>
-      <c r="CA12" s="84"/>
-      <c r="CB12" s="84"/>
-      <c r="CC12" s="84"/>
-      <c r="CD12" s="84"/>
-      <c r="CE12" s="84"/>
-      <c r="CF12" s="84"/>
-      <c r="CG12" s="84"/>
-      <c r="CH12" s="84"/>
-      <c r="CI12" s="84"/>
-      <c r="CJ12" s="84"/>
-      <c r="CK12" s="84"/>
-      <c r="CL12" s="84"/>
-      <c r="CM12" s="84"/>
-      <c r="CN12" s="84"/>
-      <c r="CO12" s="84"/>
-      <c r="CP12" s="84"/>
-      <c r="CQ12" s="84"/>
-      <c r="CR12" s="84"/>
-      <c r="CS12" s="84"/>
-      <c r="CT12" s="84"/>
-      <c r="CU12" s="84"/>
-      <c r="CV12" s="84"/>
-      <c r="CW12" s="84"/>
-      <c r="CX12" s="84"/>
-      <c r="CY12" s="84"/>
-      <c r="CZ12" s="84"/>
-      <c r="DA12" s="84"/>
-      <c r="DB12" s="84"/>
-      <c r="DC12" s="84"/>
-      <c r="DD12" s="84"/>
-      <c r="DE12" s="84"/>
-      <c r="DF12" s="84"/>
-      <c r="DG12" s="84"/>
-      <c r="DH12" s="84"/>
-      <c r="DI12" s="84"/>
-      <c r="DJ12" s="84"/>
-      <c r="DK12" s="84"/>
-      <c r="DL12" s="84"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
+      <c r="BC12" s="83"/>
+      <c r="BD12" s="83"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="83"/>
+      <c r="BG12" s="83"/>
+      <c r="BH12" s="83"/>
+      <c r="BI12" s="83"/>
+      <c r="BJ12" s="83"/>
+      <c r="BK12" s="83"/>
+      <c r="BL12" s="83"/>
+      <c r="BM12" s="83"/>
+      <c r="BN12" s="83"/>
+      <c r="BO12" s="83"/>
+      <c r="BP12" s="83"/>
+      <c r="BQ12" s="83"/>
+      <c r="BR12" s="83"/>
+      <c r="BS12" s="83"/>
+      <c r="BT12" s="83"/>
+      <c r="BU12" s="83"/>
+      <c r="BV12" s="83"/>
+      <c r="BW12" s="83"/>
+      <c r="BX12" s="83"/>
+      <c r="BY12" s="83"/>
+      <c r="BZ12" s="83"/>
+      <c r="CA12" s="83"/>
+      <c r="CB12" s="83"/>
+      <c r="CC12" s="83"/>
+      <c r="CD12" s="83"/>
+      <c r="CE12" s="83"/>
+      <c r="CF12" s="83"/>
+      <c r="CG12" s="83"/>
+      <c r="CH12" s="83"/>
+      <c r="CI12" s="83"/>
+      <c r="CJ12" s="83"/>
+      <c r="CK12" s="83"/>
+      <c r="CL12" s="83"/>
+      <c r="CM12" s="83"/>
+      <c r="CN12" s="83"/>
+      <c r="CO12" s="83"/>
+      <c r="CP12" s="83"/>
+      <c r="CQ12" s="83"/>
+      <c r="CR12" s="83"/>
+      <c r="CS12" s="83"/>
+      <c r="CT12" s="83"/>
+      <c r="CU12" s="83"/>
+      <c r="CV12" s="83"/>
+      <c r="CW12" s="83"/>
+      <c r="CX12" s="83"/>
+      <c r="CY12" s="83"/>
+      <c r="CZ12" s="83"/>
+      <c r="DA12" s="83"/>
+      <c r="DB12" s="83"/>
+      <c r="DC12" s="83"/>
+      <c r="DD12" s="83"/>
+      <c r="DE12" s="83"/>
+      <c r="DF12" s="83"/>
+      <c r="DG12" s="83"/>
+      <c r="DH12" s="83"/>
+      <c r="DI12" s="83"/>
+      <c r="DJ12" s="83"/>
+      <c r="DK12" s="83"/>
+      <c r="DL12" s="83"/>
     </row>
     <row r="13" spans="1:116" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="48"/>
-      <c r="C13" s="82">
+      <c r="C13" s="81">
         <f>C10/C12</f>
         <v>360.96568587819701</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <f>D10/D12</f>
         <v>393.24784646380931</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="81">
         <f>E10/E12</f>
         <v>426.42813845067627</v>
       </c>
@@ -1922,7 +1910,7 @@
         <v>207.29499999999999</v>
       </c>
       <c r="C15" s="26">
-        <f t="shared" ref="B15:J15" si="3">SUM(C10:C10)</f>
+        <f t="shared" ref="C15:D15" si="3">SUM(C10:C10)</f>
         <v>218.773</v>
       </c>
       <c r="D15" s="26">
@@ -3348,63 +3336,63 @@
       </c>
       <c r="F23" s="24">
         <f t="shared" ref="F23:T23" si="22">E40*$F$3</f>
-        <v>-1.7</v>
+        <v>-4.25</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="22"/>
-        <v>-3.0551551999999993</v>
+        <v>-7.7653879999999988</v>
       </c>
       <c r="H23" s="24">
         <f t="shared" si="22"/>
-        <v>-4.3489560959999976</v>
+        <v>-11.235401879999994</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" si="22"/>
-        <v>-5.5162375462399931</v>
+        <v>-14.497927794799985</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="22"/>
-        <v>-6.4711033144319847</v>
+        <v>-17.334176727707963</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="22"/>
-        <v>-7.1015820816139268</v>
+        <v>-19.453527316326618</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="22"/>
-        <v>-7.0828195328673464</v>
+        <v>-19.962458480022235</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="22"/>
-        <v>-6.3998369828837633</v>
+        <v>-18.834585857685251</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="22"/>
-        <v>-4.9668640139277178</v>
+        <v>-15.811717134661206</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="22"/>
-        <v>-2.6883328848951327</v>
+        <v>-10.603407702512749</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="22"/>
-        <v>0.54215675262477592</v>
+        <v>-2.8833619755057698</v>
       </c>
       <c r="Q23" s="24">
         <f t="shared" si="22"/>
-        <v>4.8429795462162692</v>
+        <v>7.7145466657070889</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="22"/>
-        <v>10.345743325031759</v>
+        <v>21.600676633122898</v>
       </c>
       <c r="S23" s="24">
         <f t="shared" si="22"/>
-        <v>17.196677040704873</v>
+        <v>39.234482921169786</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="22"/>
-        <v>25.558160829058501</v>
+        <v>61.129893656674781</v>
       </c>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
@@ -3525,63 +3513,63 @@
       </c>
       <c r="F24" s="24">
         <f t="shared" ref="F24:G24" si="23">F22+F23</f>
-        <v>-67.757759999999976</v>
+        <v>-70.307759999999973</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="23"/>
-        <v>-64.690044799999896</v>
+        <v>-69.400277599999896</v>
       </c>
       <c r="H24" s="24">
         <f t="shared" ref="H24" si="24">H22+H23</f>
-        <v>-58.36407251199978</v>
+        <v>-65.250518295999782</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" ref="I24" si="25">I22+I23</f>
-        <v>-47.743288409599572</v>
+        <v>-56.724978658159564</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" ref="J24" si="26">J22+J23</f>
-        <v>-31.523938359097116</v>
+        <v>-42.387011772373093</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" ref="K24" si="27">K22+K23</f>
-        <v>1.0423638192544757</v>
+        <v>-11.309581415458215</v>
       </c>
       <c r="L24" s="24">
         <f t="shared" ref="L24" si="28">L22+L23</f>
-        <v>37.943474999087925</v>
+        <v>25.063836051933038</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" ref="M24" si="29">M22+M23</f>
-        <v>79.609609386446934</v>
+        <v>67.174860511645448</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" ref="N24" si="30">N22+N23</f>
-        <v>126.58506272403251</v>
+        <v>115.74020960329902</v>
       </c>
       <c r="O24" s="24">
         <f t="shared" ref="O24:P24" si="31">O22+O23</f>
-        <v>179.47164652888381</v>
+        <v>171.5565717112662</v>
       </c>
       <c r="P24" s="24">
         <f t="shared" si="31"/>
-        <v>238.93459964397184</v>
+        <v>235.50908091584128</v>
       </c>
       <c r="Q24" s="24">
         <f t="shared" ref="Q24:T24" si="32">Q22+Q23</f>
-        <v>305.70909882308274</v>
+        <v>308.58066594257355</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="32"/>
-        <v>380.60742864850636</v>
+        <v>391.86236195659745</v>
       </c>
       <c r="S24" s="24">
         <f t="shared" si="32"/>
-        <v>464.52687713075721</v>
+        <v>486.56468301122214</v>
       </c>
       <c r="T24" s="24">
         <f t="shared" si="32"/>
-        <v>558.45842999523393</v>
+        <v>594.03016282285023</v>
       </c>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
@@ -3715,44 +3703,44 @@
         <v>0</v>
       </c>
       <c r="K25" s="24">
-        <f t="shared" ref="G25:O25" si="33">K24*0.1</f>
-        <v>0.10423638192544758</v>
+        <f t="shared" ref="K25:O25" si="33">K24*0.1</f>
+        <v>-1.1309581415458216</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="33"/>
-        <v>3.7943474999087927</v>
+        <v>2.5063836051933039</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="33"/>
-        <v>7.9609609386446936</v>
+        <v>6.7174860511645456</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="33"/>
-        <v>12.658506272403251</v>
+        <v>11.574020960329904</v>
       </c>
       <c r="O25" s="24">
         <f t="shared" si="33"/>
-        <v>17.947164652888382</v>
+        <v>17.15565717112662</v>
       </c>
       <c r="P25" s="24">
         <f t="shared" ref="P25:T25" si="34">P24*0.1</f>
-        <v>23.893459964397184</v>
+        <v>23.55090809158413</v>
       </c>
       <c r="Q25" s="24">
         <f t="shared" si="34"/>
-        <v>30.570909882308275</v>
+        <v>30.858066594257355</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="34"/>
-        <v>38.060742864850639</v>
+        <v>39.186236195659745</v>
       </c>
       <c r="S25" s="24">
         <f t="shared" si="34"/>
-        <v>46.452687713075726</v>
+        <v>48.656468301122217</v>
       </c>
       <c r="T25" s="24">
         <f t="shared" si="34"/>
-        <v>55.845842999523398</v>
+        <v>59.403016282285023</v>
       </c>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
@@ -3873,779 +3861,779 @@
       </c>
       <c r="F26" s="26">
         <f>F24-F25</f>
-        <v>-67.757759999999976</v>
+        <v>-70.307759999999973</v>
       </c>
       <c r="G26" s="26">
         <f t="shared" si="35"/>
-        <v>-64.690044799999896</v>
+        <v>-69.400277599999896</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" ref="H26:O26" si="36">H24-H25</f>
-        <v>-58.36407251199978</v>
+        <v>-65.250518295999782</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="36"/>
-        <v>-47.743288409599572</v>
+        <v>-56.724978658159564</v>
       </c>
       <c r="J26" s="26">
         <f t="shared" si="36"/>
-        <v>-31.523938359097116</v>
+        <v>-42.387011772373093</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="36"/>
-        <v>0.93812743732902815</v>
+        <v>-10.178623273912393</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="36"/>
-        <v>34.14912749917913</v>
+        <v>22.557452446739735</v>
       </c>
       <c r="M26" s="26">
         <f t="shared" si="36"/>
-        <v>71.648648447802245</v>
+        <v>60.457374460480906</v>
       </c>
       <c r="N26" s="26">
         <f t="shared" si="36"/>
-        <v>113.92655645162927</v>
+        <v>104.16618864296912</v>
       </c>
       <c r="O26" s="26">
         <f t="shared" si="36"/>
-        <v>161.52448187599543</v>
+        <v>154.40091454013958</v>
       </c>
       <c r="P26" s="26">
         <f t="shared" ref="P26:T26" si="37">P24-P25</f>
-        <v>215.04113967957466</v>
+        <v>211.95817282425716</v>
       </c>
       <c r="Q26" s="26">
         <f t="shared" si="37"/>
-        <v>275.13818894077446</v>
+        <v>277.72259934831618</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="37"/>
-        <v>342.54668578365573</v>
+        <v>352.67612576093768</v>
       </c>
       <c r="S26" s="26">
         <f t="shared" si="37"/>
-        <v>418.07418941768151</v>
+        <v>437.90821471009991</v>
       </c>
       <c r="T26" s="26">
         <f t="shared" si="37"/>
-        <v>502.61258699571056</v>
+        <v>534.62714654056526</v>
       </c>
       <c r="U26" s="26">
         <f t="shared" ref="U26:AZ26" si="38">T26*($F$2+1)</f>
-        <v>500.09952406073199</v>
+        <v>537.30028227326807</v>
       </c>
       <c r="V26" s="26">
         <f t="shared" si="38"/>
-        <v>497.5990264404283</v>
+        <v>539.98678368463436</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="38"/>
-        <v>495.11103130822619</v>
+        <v>542.68671760305745</v>
       </c>
       <c r="X26" s="26">
         <f t="shared" si="38"/>
-        <v>492.63547615168505</v>
+        <v>545.40015119107272</v>
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="38"/>
-        <v>490.1722987709266</v>
+        <v>548.12715194702798</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="38"/>
-        <v>487.72143727707197</v>
+        <v>550.86778770676301</v>
       </c>
       <c r="AA26" s="26">
         <f t="shared" si="38"/>
-        <v>485.28283009068662</v>
+        <v>553.62212664529682</v>
       </c>
       <c r="AB26" s="26">
         <f t="shared" si="38"/>
-        <v>482.85641594023321</v>
+        <v>556.39023727852327</v>
       </c>
       <c r="AC26" s="26">
         <f t="shared" si="38"/>
-        <v>480.44213386053201</v>
+        <v>559.17218846491585</v>
       </c>
       <c r="AD26" s="26">
         <f t="shared" si="38"/>
-        <v>478.03992319122932</v>
+        <v>561.96804940724041</v>
       </c>
       <c r="AE26" s="26">
         <f t="shared" si="38"/>
-        <v>475.64972357527319</v>
+        <v>564.77788965427658</v>
       </c>
       <c r="AF26" s="26">
         <f t="shared" si="38"/>
-        <v>473.27147495739683</v>
+        <v>567.60177910254788</v>
       </c>
       <c r="AG26" s="26">
         <f t="shared" si="38"/>
-        <v>470.90511758260982</v>
+        <v>570.43978799806052</v>
       </c>
       <c r="AH26" s="26">
         <f t="shared" si="38"/>
-        <v>468.55059199469679</v>
+        <v>573.29198693805074</v>
       </c>
       <c r="AI26" s="26">
         <f t="shared" si="38"/>
-        <v>466.20783903472329</v>
+        <v>576.15844687274091</v>
       </c>
       <c r="AJ26" s="26">
         <f t="shared" si="38"/>
-        <v>463.87679983954968</v>
+        <v>579.03923910710455</v>
       </c>
       <c r="AK26" s="26">
         <f t="shared" si="38"/>
-        <v>461.55741584035195</v>
+        <v>581.93443530264005</v>
       </c>
       <c r="AL26" s="26">
         <f t="shared" si="38"/>
-        <v>459.24962876115018</v>
+        <v>584.84410747915319</v>
       </c>
       <c r="AM26" s="26">
         <f t="shared" si="38"/>
-        <v>456.95338061734441</v>
+        <v>587.76832801654894</v>
       </c>
       <c r="AN26" s="26">
         <f t="shared" si="38"/>
-        <v>454.66861371425767</v>
+        <v>590.70716965663166</v>
       </c>
       <c r="AO26" s="26">
         <f t="shared" si="38"/>
-        <v>452.39527064568637</v>
+        <v>593.66070550491474</v>
       </c>
       <c r="AP26" s="26">
         <f t="shared" si="38"/>
-        <v>450.13329429245795</v>
+        <v>596.62900903243928</v>
       </c>
       <c r="AQ26" s="26">
         <f t="shared" si="38"/>
-        <v>447.88262782099565</v>
+        <v>599.61215407760142</v>
       </c>
       <c r="AR26" s="26">
         <f t="shared" si="38"/>
-        <v>445.6432146818907</v>
+        <v>602.61021484798937</v>
       </c>
       <c r="AS26" s="26">
         <f t="shared" si="38"/>
-        <v>443.41499860848126</v>
+        <v>605.62326592222928</v>
       </c>
       <c r="AT26" s="26">
         <f t="shared" si="38"/>
-        <v>441.19792361543887</v>
+        <v>608.65138225184035</v>
       </c>
       <c r="AU26" s="26">
         <f t="shared" si="38"/>
-        <v>438.99193399736168</v>
+        <v>611.69463916309951</v>
       </c>
       <c r="AV26" s="26">
         <f t="shared" si="38"/>
-        <v>436.79697432737487</v>
+        <v>614.7531123589149</v>
       </c>
       <c r="AW26" s="26">
         <f t="shared" si="38"/>
-        <v>434.61298945573799</v>
+        <v>617.82687792070942</v>
       </c>
       <c r="AX26" s="26">
         <f t="shared" si="38"/>
-        <v>432.43992450845928</v>
+        <v>620.91601231031291</v>
       </c>
       <c r="AY26" s="26">
         <f t="shared" si="38"/>
-        <v>430.277724885917</v>
+        <v>624.02059237186438</v>
       </c>
       <c r="AZ26" s="26">
         <f t="shared" si="38"/>
-        <v>428.12633626148738</v>
+        <v>627.14069533372367</v>
       </c>
       <c r="BA26" s="26">
         <f t="shared" ref="BA26:CF26" si="39">AZ26*($F$2+1)</f>
-        <v>425.98570458017997</v>
+        <v>630.27639881039227</v>
       </c>
       <c r="BB26" s="26">
         <f t="shared" si="39"/>
-        <v>423.85577605727906</v>
+        <v>633.42778080444418</v>
       </c>
       <c r="BC26" s="26">
         <f t="shared" si="39"/>
-        <v>421.73649717699266</v>
+        <v>636.59491970846636</v>
       </c>
       <c r="BD26" s="26">
         <f t="shared" si="39"/>
-        <v>419.62781469110769</v>
+        <v>639.77789430700864</v>
       </c>
       <c r="BE26" s="26">
         <f t="shared" si="39"/>
-        <v>417.52967561765217</v>
+        <v>642.97678377854356</v>
       </c>
       <c r="BF26" s="26">
         <f t="shared" si="39"/>
-        <v>415.44202723956391</v>
+        <v>646.19166769743617</v>
       </c>
       <c r="BG26" s="26">
         <f t="shared" si="39"/>
-        <v>413.36481710336608</v>
+        <v>649.42262603592326</v>
       </c>
       <c r="BH26" s="26">
         <f t="shared" si="39"/>
-        <v>411.29799301784925</v>
+        <v>652.66973916610277</v>
       </c>
       <c r="BI26" s="26">
         <f t="shared" si="39"/>
-        <v>409.24150305275998</v>
+        <v>655.93308786193325</v>
       </c>
       <c r="BJ26" s="26">
         <f t="shared" si="39"/>
-        <v>407.19529553749618</v>
+        <v>659.21275330124286</v>
       </c>
       <c r="BK26" s="26">
         <f t="shared" si="39"/>
-        <v>405.15931905980869</v>
+        <v>662.50881706774896</v>
       </c>
       <c r="BL26" s="26">
         <f t="shared" si="39"/>
-        <v>403.13352246450967</v>
+        <v>665.82136115308765</v>
       </c>
       <c r="BM26" s="26">
         <f t="shared" si="39"/>
-        <v>401.11785485218712</v>
+        <v>669.15046795885303</v>
       </c>
       <c r="BN26" s="26">
         <f t="shared" si="39"/>
-        <v>399.11226557792617</v>
+        <v>672.49622029864724</v>
       </c>
       <c r="BO26" s="26">
         <f t="shared" si="39"/>
-        <v>397.11670425003655</v>
+        <v>675.85870140014038</v>
       </c>
       <c r="BP26" s="26">
         <f t="shared" si="39"/>
-        <v>395.13112072878636</v>
+        <v>679.237994907141</v>
       </c>
       <c r="BQ26" s="26">
         <f t="shared" si="39"/>
-        <v>393.15546512514243</v>
+        <v>682.63418488167667</v>
       </c>
       <c r="BR26" s="26">
         <f t="shared" si="39"/>
-        <v>391.18968779951672</v>
+        <v>686.04735580608497</v>
       </c>
       <c r="BS26" s="26">
         <f t="shared" si="39"/>
-        <v>389.23373936051911</v>
+        <v>689.4775925851153</v>
       </c>
       <c r="BT26" s="26">
         <f t="shared" si="39"/>
-        <v>387.28757066371651</v>
+        <v>692.92498054804082</v>
       </c>
       <c r="BU26" s="26">
         <f t="shared" si="39"/>
-        <v>385.35113281039793</v>
+        <v>696.389605450781</v>
       </c>
       <c r="BV26" s="26">
         <f t="shared" si="39"/>
-        <v>383.42437714634593</v>
+        <v>699.8715534780348</v>
       </c>
       <c r="BW26" s="26">
         <f t="shared" si="39"/>
-        <v>381.50725526061422</v>
+        <v>703.37091124542485</v>
       </c>
       <c r="BX26" s="26">
         <f t="shared" si="39"/>
-        <v>379.59971898431115</v>
+        <v>706.88776580165188</v>
       </c>
       <c r="BY26" s="26">
         <f t="shared" si="39"/>
-        <v>377.70172038938961</v>
+        <v>710.42220463066008</v>
       </c>
       <c r="BZ26" s="26">
         <f t="shared" si="39"/>
-        <v>375.81321178744264</v>
+        <v>713.97431565381328</v>
       </c>
       <c r="CA26" s="26">
         <f t="shared" si="39"/>
-        <v>373.93414572850543</v>
+        <v>717.54418723208232</v>
       </c>
       <c r="CB26" s="26">
         <f t="shared" si="39"/>
-        <v>372.06447499986291</v>
+        <v>721.1319081682426</v>
       </c>
       <c r="CC26" s="26">
         <f t="shared" si="39"/>
-        <v>370.20415262486358</v>
+        <v>724.73756770908369</v>
       </c>
       <c r="CD26" s="26">
         <f t="shared" si="39"/>
-        <v>368.35313186173926</v>
+        <v>728.36125554762907</v>
       </c>
       <c r="CE26" s="26">
         <f t="shared" si="39"/>
-        <v>366.51136620243057</v>
+        <v>732.00306182536713</v>
       </c>
       <c r="CF26" s="26">
         <f t="shared" si="39"/>
-        <v>364.67880937141842</v>
+        <v>735.66307713449385</v>
       </c>
       <c r="CG26" s="26">
         <f t="shared" ref="CG26:DL26" si="40">CF26*($F$2+1)</f>
-        <v>362.85541532456131</v>
+        <v>739.34139252016621</v>
       </c>
       <c r="CH26" s="26">
         <f t="shared" si="40"/>
-        <v>361.04113824793848</v>
+        <v>743.03809948276694</v>
       </c>
       <c r="CI26" s="26">
         <f t="shared" si="40"/>
-        <v>359.2359325566988</v>
+        <v>746.75328998018074</v>
       </c>
       <c r="CJ26" s="26">
         <f t="shared" si="40"/>
-        <v>357.43975289391528</v>
+        <v>750.48705643008157</v>
       </c>
       <c r="CK26" s="26">
         <f t="shared" si="40"/>
-        <v>355.65255412944572</v>
+        <v>754.23949171223194</v>
       </c>
       <c r="CL26" s="26">
         <f t="shared" si="40"/>
-        <v>353.87429135879847</v>
+        <v>758.01068917079306</v>
       </c>
       <c r="CM26" s="26">
         <f t="shared" si="40"/>
-        <v>352.1049199020045</v>
+        <v>761.80074261664697</v>
       </c>
       <c r="CN26" s="26">
         <f t="shared" si="40"/>
-        <v>350.34439530249449</v>
+        <v>765.60974632973011</v>
       </c>
       <c r="CO26" s="26">
         <f t="shared" si="40"/>
-        <v>348.59267332598199</v>
+        <v>769.43779506137867</v>
       </c>
       <c r="CP26" s="26">
         <f t="shared" si="40"/>
-        <v>346.84970995935208</v>
+        <v>773.2849840366855</v>
       </c>
       <c r="CQ26" s="26">
         <f t="shared" si="40"/>
-        <v>345.11546140955534</v>
+        <v>777.15140895686886</v>
       </c>
       <c r="CR26" s="26">
         <f t="shared" si="40"/>
-        <v>343.38988410250755</v>
+        <v>781.03716600165308</v>
       </c>
       <c r="CS26" s="26">
         <f t="shared" si="40"/>
-        <v>341.672934681995</v>
+        <v>784.94235183166131</v>
       </c>
       <c r="CT26" s="26">
         <f t="shared" si="40"/>
-        <v>339.96457000858504</v>
+        <v>788.8670635908195</v>
       </c>
       <c r="CU26" s="26">
         <f t="shared" si="40"/>
-        <v>338.26474715854209</v>
+        <v>792.81139890877353</v>
       </c>
       <c r="CV26" s="26">
         <f t="shared" si="40"/>
-        <v>336.57342342274939</v>
+        <v>796.77545590331727</v>
       </c>
       <c r="CW26" s="26">
         <f t="shared" si="40"/>
-        <v>334.89055630563564</v>
+        <v>800.75933318283376</v>
       </c>
       <c r="CX26" s="26">
         <f t="shared" si="40"/>
-        <v>333.21610352410744</v>
+        <v>804.76312984874789</v>
       </c>
       <c r="CY26" s="26">
         <f t="shared" si="40"/>
-        <v>331.55002300648692</v>
+        <v>808.7869454979915</v>
       </c>
       <c r="CZ26" s="26">
         <f t="shared" si="40"/>
-        <v>329.89227289145447</v>
+        <v>812.83088022548134</v>
       </c>
       <c r="DA26" s="26">
         <f t="shared" si="40"/>
-        <v>328.24281152699717</v>
+        <v>816.89503462660866</v>
       </c>
       <c r="DB26" s="26">
         <f t="shared" si="40"/>
-        <v>326.60159746936216</v>
+        <v>820.97950979974166</v>
       </c>
       <c r="DC26" s="26">
         <f t="shared" si="40"/>
-        <v>324.96858948201537</v>
+        <v>825.08440734874023</v>
       </c>
       <c r="DD26" s="26">
         <f t="shared" si="40"/>
-        <v>323.34374653460532</v>
+        <v>829.20982938548389</v>
       </c>
       <c r="DE26" s="26">
         <f t="shared" si="40"/>
-        <v>321.72702780193231</v>
+        <v>833.35587853241123</v>
       </c>
       <c r="DF26" s="26">
         <f t="shared" si="40"/>
-        <v>320.11839266292264</v>
+        <v>837.52265792507319</v>
       </c>
       <c r="DG26" s="26">
         <f t="shared" si="40"/>
-        <v>318.51780069960802</v>
+        <v>841.71027121469842</v>
       </c>
       <c r="DH26" s="26">
         <f t="shared" si="40"/>
-        <v>316.92521169610995</v>
+        <v>845.91882257077179</v>
       </c>
       <c r="DI26" s="26">
         <f t="shared" si="40"/>
-        <v>315.34058563762943</v>
+        <v>850.14841668362556</v>
       </c>
       <c r="DJ26" s="26">
         <f t="shared" si="40"/>
-        <v>313.7638827094413</v>
+        <v>854.39915876704356</v>
       </c>
       <c r="DK26" s="26">
         <f t="shared" si="40"/>
-        <v>312.1950632958941</v>
+        <v>858.67115456087868</v>
       </c>
       <c r="DL26" s="26">
         <f t="shared" si="40"/>
-        <v>310.63408797941463</v>
+        <v>862.96451033368294</v>
       </c>
       <c r="DM26" s="26">
         <f t="shared" ref="DM26:ER26" si="41">DL26*($F$2+1)</f>
-        <v>309.08091753951754</v>
+        <v>867.27933288535121</v>
       </c>
       <c r="DN26" s="26">
         <f t="shared" si="41"/>
-        <v>307.53551295181995</v>
+        <v>871.61572954977783</v>
       </c>
       <c r="DO26" s="26">
         <f t="shared" si="41"/>
-        <v>305.99783538706083</v>
+        <v>875.97380819752664</v>
       </c>
       <c r="DP26" s="26">
         <f t="shared" si="41"/>
-        <v>304.46784621012551</v>
+        <v>880.35367723851414</v>
       </c>
       <c r="DQ26" s="26">
         <f t="shared" si="41"/>
-        <v>302.94550697907488</v>
+        <v>884.75544562470657</v>
       </c>
       <c r="DR26" s="26">
         <f t="shared" si="41"/>
-        <v>301.43077944417951</v>
+        <v>889.17922285282998</v>
       </c>
       <c r="DS26" s="26">
         <f t="shared" si="41"/>
-        <v>299.92362554695859</v>
+        <v>893.62511896709407</v>
       </c>
       <c r="DT26" s="26">
         <f t="shared" si="41"/>
-        <v>298.42400741922381</v>
+        <v>898.0932445619294</v>
       </c>
       <c r="DU26" s="26">
         <f t="shared" si="41"/>
-        <v>296.93188738212768</v>
+        <v>902.58371078473897</v>
       </c>
       <c r="DV26" s="26">
         <f t="shared" si="41"/>
-        <v>295.44722794521704</v>
+        <v>907.09662933866252</v>
       </c>
       <c r="DW26" s="26">
         <f t="shared" si="41"/>
-        <v>293.96999180549096</v>
+        <v>911.63211248535572</v>
       </c>
       <c r="DX26" s="26">
         <f t="shared" si="41"/>
-        <v>292.50014184646352</v>
+        <v>916.1902730477824</v>
       </c>
       <c r="DY26" s="26">
         <f t="shared" si="41"/>
-        <v>291.03764113723122</v>
+        <v>920.77122441302117</v>
       </c>
       <c r="DZ26" s="26">
         <f t="shared" si="41"/>
-        <v>289.58245293154505</v>
+        <v>925.37508053508623</v>
       </c>
       <c r="EA26" s="26">
         <f t="shared" si="41"/>
-        <v>288.13454066688735</v>
+        <v>930.00195593776152</v>
       </c>
       <c r="EB26" s="26">
         <f t="shared" si="41"/>
-        <v>286.69386796355292</v>
+        <v>934.65196571745025</v>
       </c>
       <c r="EC26" s="26">
         <f t="shared" si="41"/>
-        <v>285.26039862373517</v>
+        <v>939.32522554603736</v>
       </c>
       <c r="ED26" s="26">
         <f t="shared" si="41"/>
-        <v>283.8340966306165</v>
+        <v>944.0218516737674</v>
       </c>
       <c r="EE26" s="26">
         <f t="shared" si="41"/>
-        <v>282.4149261474634</v>
+        <v>948.74196093213618</v>
       </c>
       <c r="EF26" s="26">
         <f t="shared" si="41"/>
-        <v>281.00285151672608</v>
+        <v>953.48567073679681</v>
       </c>
       <c r="EG26" s="26">
         <f t="shared" si="41"/>
-        <v>279.59783725914247</v>
+        <v>958.25309909048065</v>
       </c>
       <c r="EH26" s="26">
         <f t="shared" si="41"/>
-        <v>278.19984807284675</v>
+        <v>963.04436458593295</v>
       </c>
       <c r="EI26" s="26">
         <f t="shared" si="41"/>
-        <v>276.80884883248251</v>
+        <v>967.85958640886247</v>
       </c>
       <c r="EJ26" s="26">
         <f t="shared" si="41"/>
-        <v>275.42480458832011</v>
+        <v>972.69888434090672</v>
       </c>
       <c r="EK26" s="26">
         <f t="shared" si="41"/>
-        <v>274.04768056537853</v>
+        <v>977.56237876261116</v>
       </c>
       <c r="EL26" s="26">
         <f t="shared" si="41"/>
-        <v>272.67744216255164</v>
+        <v>982.45019065642407</v>
       </c>
       <c r="EM26" s="26">
         <f t="shared" si="41"/>
-        <v>271.31405495173891</v>
+        <v>987.36244160970614</v>
       </c>
       <c r="EN26" s="26">
         <f t="shared" si="41"/>
-        <v>269.95748467698019</v>
+        <v>992.29925381775456</v>
       </c>
       <c r="EO26" s="26">
         <f t="shared" si="41"/>
-        <v>268.60769725359529</v>
+        <v>997.26075008684325</v>
       </c>
       <c r="EP26" s="26">
         <f t="shared" si="41"/>
-        <v>267.26465876732732</v>
+        <v>1002.2470538372773</v>
       </c>
       <c r="EQ26" s="26">
         <f t="shared" si="41"/>
-        <v>265.92833547349068</v>
+        <v>1007.2582891064636</v>
       </c>
       <c r="ER26" s="26">
         <f t="shared" si="41"/>
-        <v>264.5986937961232</v>
+        <v>1012.2945805519959</v>
       </c>
       <c r="ES26" s="26">
         <f t="shared" ref="ES26:FX26" si="42">ER26*($F$2+1)</f>
-        <v>263.2757003271426</v>
+        <v>1017.3560534547557</v>
       </c>
       <c r="ET26" s="26">
         <f t="shared" si="42"/>
-        <v>261.95932182550689</v>
+        <v>1022.4428337220294</v>
       </c>
       <c r="EU26" s="26">
         <f t="shared" si="42"/>
-        <v>260.64952521637935</v>
+        <v>1027.5550478906393</v>
       </c>
       <c r="EV26" s="26">
         <f t="shared" si="42"/>
-        <v>259.34627759029746</v>
+        <v>1032.6928231300924</v>
       </c>
       <c r="EW26" s="26">
         <f t="shared" si="42"/>
-        <v>258.04954620234599</v>
+        <v>1037.8562872457428</v>
       </c>
       <c r="EX26" s="26">
         <f t="shared" si="42"/>
-        <v>256.75929847133426</v>
+        <v>1043.0455686819714</v>
       </c>
       <c r="EY26" s="26">
         <f t="shared" si="42"/>
-        <v>255.47550197897758</v>
+        <v>1048.2607965253812</v>
       </c>
       <c r="EZ26" s="26">
         <f t="shared" si="42"/>
-        <v>254.1981244690827</v>
+        <v>1053.502100508008</v>
       </c>
       <c r="FA26" s="26">
         <f t="shared" si="42"/>
-        <v>252.92713384673729</v>
+        <v>1058.7696110105478</v>
       </c>
       <c r="FB26" s="26">
         <f t="shared" si="42"/>
-        <v>251.66249817750361</v>
+        <v>1064.0634590656005</v>
       </c>
       <c r="FC26" s="26">
         <f t="shared" si="42"/>
-        <v>250.4041856866161</v>
+        <v>1069.3837763609283</v>
       </c>
       <c r="FD26" s="26">
         <f t="shared" si="42"/>
-        <v>249.15216475818303</v>
+        <v>1074.730695242733</v>
       </c>
       <c r="FE26" s="26">
         <f t="shared" si="42"/>
-        <v>247.90640393439213</v>
+        <v>1080.1043487189465</v>
       </c>
       <c r="FF26" s="26">
         <f t="shared" si="42"/>
-        <v>246.66687191472016</v>
+        <v>1085.5048704625412</v>
       </c>
       <c r="FG26" s="26">
         <f t="shared" si="42"/>
-        <v>245.43353755514656</v>
+        <v>1090.9323948148538</v>
       </c>
       <c r="FH26" s="26">
         <f t="shared" si="42"/>
-        <v>244.20636986737082</v>
+        <v>1096.3870567889278</v>
       </c>
       <c r="FI26" s="26">
         <f t="shared" si="42"/>
-        <v>242.98533801803396</v>
+        <v>1101.8689920728723</v>
       </c>
       <c r="FJ26" s="26">
         <f t="shared" si="42"/>
-        <v>241.77041132794378</v>
+        <v>1107.3783370332364</v>
       </c>
       <c r="FK26" s="26">
         <f t="shared" si="42"/>
-        <v>240.56155927130405</v>
+        <v>1112.9152287184024</v>
       </c>
       <c r="FL26" s="26">
         <f t="shared" si="42"/>
-        <v>239.35875147494752</v>
+        <v>1118.4798048619944</v>
       </c>
       <c r="FM26" s="26">
         <f t="shared" si="42"/>
-        <v>238.16195771757279</v>
+        <v>1124.0722038863041</v>
       </c>
       <c r="FN26" s="26">
         <f t="shared" si="42"/>
-        <v>236.97114792898492</v>
+        <v>1129.6925649057355</v>
       </c>
       <c r="FO26" s="26">
         <f t="shared" si="42"/>
-        <v>235.78629218934</v>
+        <v>1135.3410277302639</v>
       </c>
       <c r="FP26" s="26">
         <f t="shared" si="42"/>
-        <v>234.6073607283933</v>
+        <v>1141.0177328689151</v>
       </c>
       <c r="FQ26" s="26">
         <f t="shared" si="42"/>
-        <v>233.43432392475134</v>
+        <v>1146.7228215332595</v>
       </c>
       <c r="FR26" s="26">
         <f t="shared" si="42"/>
-        <v>232.26715230512758</v>
+        <v>1152.4564356409257</v>
       </c>
       <c r="FS26" s="26">
         <f t="shared" si="42"/>
-        <v>231.10581654360195</v>
+        <v>1158.2187178191302</v>
       </c>
       <c r="FT26" s="26">
         <f t="shared" si="42"/>
-        <v>229.95028746088394</v>
+        <v>1164.0098114082257</v>
       </c>
       <c r="FU26" s="26">
         <f t="shared" si="42"/>
-        <v>228.80053602357953</v>
+        <v>1169.8298604652666</v>
       </c>
       <c r="FV26" s="26">
         <f t="shared" si="42"/>
-        <v>227.65653334346163</v>
+        <v>1175.6790097675928</v>
       </c>
       <c r="FW26" s="26">
         <f t="shared" si="42"/>
-        <v>226.51825067674432</v>
+        <v>1181.5574048164306</v>
       </c>
       <c r="FX26" s="26">
         <f t="shared" si="42"/>
-        <v>225.38565942336058</v>
+        <v>1187.4651918405125</v>
       </c>
       <c r="FY26" s="26">
         <f t="shared" ref="FY26:GQ26" si="43">FX26*($F$2+1)</f>
-        <v>224.25873112624379</v>
+        <v>1193.4025177997148</v>
       </c>
       <c r="FZ26" s="26">
         <f t="shared" si="43"/>
-        <v>223.13743747061258</v>
+        <v>1199.3695303887132</v>
       </c>
       <c r="GA26" s="26">
         <f t="shared" si="43"/>
-        <v>222.02175028325951</v>
+        <v>1205.3663780406566</v>
       </c>
       <c r="GB26" s="26">
         <f t="shared" si="43"/>
-        <v>220.9116415318432</v>
+        <v>1211.3932099308597</v>
       </c>
       <c r="GC26" s="26">
         <f t="shared" si="43"/>
-        <v>219.80708332418399</v>
+        <v>1217.4501759805139</v>
       </c>
       <c r="GD26" s="26">
         <f t="shared" si="43"/>
-        <v>218.70804790756307</v>
+        <v>1223.5374268604164</v>
       </c>
       <c r="GE26" s="26">
         <f t="shared" si="43"/>
-        <v>217.61450766802525</v>
+        <v>1229.6551139947185</v>
       </c>
       <c r="GF26" s="26">
         <f t="shared" si="43"/>
-        <v>216.52643512968513</v>
+        <v>1235.803389564692</v>
       </c>
       <c r="GG26" s="26">
         <f t="shared" si="43"/>
-        <v>215.4438029540367</v>
+        <v>1241.9824065125154</v>
       </c>
       <c r="GH26" s="26">
         <f t="shared" si="43"/>
-        <v>214.36658393926652</v>
+        <v>1248.1923185450778</v>
       </c>
       <c r="GI26" s="26">
         <f t="shared" si="43"/>
-        <v>213.29475101957019</v>
+        <v>1254.433280137803</v>
       </c>
       <c r="GJ26" s="26">
         <f t="shared" si="43"/>
-        <v>212.22827726447233</v>
+        <v>1260.7054465384917</v>
       </c>
       <c r="GK26" s="26">
         <f t="shared" si="43"/>
-        <v>211.16713587814996</v>
+        <v>1267.0089737711842</v>
       </c>
       <c r="GL26" s="26">
         <f t="shared" si="43"/>
-        <v>210.11130019875921</v>
+        <v>1273.3440186400398</v>
       </c>
       <c r="GM26" s="26">
         <f t="shared" si="43"/>
-        <v>209.06074369776542</v>
+        <v>1279.7107387332399</v>
       </c>
       <c r="GN26" s="26">
         <f t="shared" si="43"/>
-        <v>208.01543997927658</v>
+        <v>1286.109292426906</v>
       </c>
       <c r="GO26" s="26">
         <f t="shared" si="43"/>
-        <v>206.97536277938019</v>
+        <v>1292.5398388890403</v>
       </c>
       <c r="GP26" s="26">
         <f t="shared" si="43"/>
-        <v>205.94048596548328</v>
+        <v>1299.0025380834854</v>
       </c>
       <c r="GQ26" s="26">
         <f t="shared" si="43"/>
-        <v>204.91078353565587</v>
+        <v>1305.4975507739027</v>
       </c>
     </row>
     <row r="27" spans="1:199" x14ac:dyDescent="0.15">
@@ -4667,63 +4655,63 @@
       </c>
       <c r="F27" s="55">
         <f t="shared" si="44"/>
-        <v>-0.50202461305929491</v>
+        <v>-0.52091784039297895</v>
       </c>
       <c r="G27" s="55">
         <f t="shared" ref="G27" si="45">G26/G28</f>
-        <v>-0.47929557750298141</v>
+        <v>-0.51419420459512855</v>
       </c>
       <c r="H27" s="55">
         <f t="shared" ref="H27:O27" si="46">H26/H28</f>
-        <v>-0.43242576081914946</v>
+        <v>-0.48344818659099337</v>
       </c>
       <c r="I27" s="55">
         <f t="shared" si="46"/>
-        <v>-0.35373521630596338</v>
+        <v>-0.42028153619097397</v>
       </c>
       <c r="J27" s="55">
         <f t="shared" si="46"/>
-        <v>-0.23356428779273106</v>
+        <v>-0.31404998016117103</v>
       </c>
       <c r="K27" s="55">
         <f t="shared" si="46"/>
-        <v>6.9506882123230385E-3</v>
+        <v>-7.5414526846256505E-2</v>
       </c>
       <c r="L27" s="55">
         <f t="shared" si="46"/>
-        <v>0.25301459964272632</v>
+        <v>0.16713061848824348</v>
       </c>
       <c r="M27" s="55">
         <f t="shared" si="46"/>
-        <v>0.5308526287355041</v>
+        <v>0.44793526261942307</v>
       </c>
       <c r="N27" s="55">
         <f t="shared" si="46"/>
-        <v>0.84409424720957604</v>
+        <v>0.77177862059412994</v>
       </c>
       <c r="O27" s="55">
         <f t="shared" si="46"/>
-        <v>1.196752453348513</v>
+        <v>1.1439731682100303</v>
       </c>
       <c r="P27" s="55">
         <f t="shared" ref="P27:T27" si="47">P26/P28</f>
-        <v>1.5932631913963553</v>
+        <v>1.5704211546670508</v>
       </c>
       <c r="Q27" s="55">
         <f t="shared" si="47"/>
-        <v>2.0385287654259456</v>
+        <v>2.0576769432115243</v>
       </c>
       <c r="R27" s="55">
         <f t="shared" si="47"/>
-        <v>2.5379656497688785</v>
+        <v>2.6130157722213077</v>
       </c>
       <c r="S27" s="55">
         <f t="shared" si="47"/>
-        <v>3.0975571384368377</v>
+        <v>3.2445095889433864</v>
       </c>
       <c r="T27" s="55">
         <f t="shared" si="47"/>
-        <v>3.7239113203454912</v>
+        <v>3.9611106738626298</v>
       </c>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -6764,63 +6752,63 @@
       </c>
       <c r="F40" s="57">
         <f>E40+F26</f>
-        <v>-152.75775999999996</v>
+        <v>-155.30775999999997</v>
       </c>
       <c r="G40" s="57">
         <f>F40+G26</f>
-        <v>-217.44780479999986</v>
+        <v>-224.70803759999987</v>
       </c>
       <c r="H40" s="57">
         <f t="shared" ref="H40:T40" si="69">G40+H26</f>
-        <v>-275.81187731199964</v>
+        <v>-289.95855589599967</v>
       </c>
       <c r="I40" s="57">
         <f t="shared" si="69"/>
-        <v>-323.55516572159922</v>
+        <v>-346.68353455415922</v>
       </c>
       <c r="J40" s="57">
         <f t="shared" si="69"/>
-        <v>-355.07910408069631</v>
+        <v>-389.07054632653234</v>
       </c>
       <c r="K40" s="57">
         <f t="shared" si="69"/>
-        <v>-354.14097664336731</v>
+        <v>-399.2491696004447</v>
       </c>
       <c r="L40" s="57">
         <f t="shared" si="69"/>
-        <v>-319.99184914418817</v>
+        <v>-376.69171715370499</v>
       </c>
       <c r="M40" s="57">
         <f t="shared" si="69"/>
-        <v>-248.34320069638591</v>
+        <v>-316.23434269322411</v>
       </c>
       <c r="N40" s="57">
         <f t="shared" si="69"/>
-        <v>-134.41664424475664</v>
+        <v>-212.06815405025498</v>
       </c>
       <c r="O40" s="57">
         <f t="shared" si="69"/>
-        <v>27.107837631238795</v>
+        <v>-57.667239510115394</v>
       </c>
       <c r="P40" s="57">
         <f t="shared" si="69"/>
-        <v>242.14897731081345</v>
+        <v>154.29093331414177</v>
       </c>
       <c r="Q40" s="57">
         <f t="shared" si="69"/>
-        <v>517.28716625158791</v>
+        <v>432.01353266245792</v>
       </c>
       <c r="R40" s="57">
         <f t="shared" si="69"/>
-        <v>859.83385203524358</v>
+        <v>784.6896584233956</v>
       </c>
       <c r="S40" s="57">
         <f t="shared" si="69"/>
-        <v>1277.9080414529251</v>
+        <v>1222.5978731334956</v>
       </c>
       <c r="T40" s="57">
         <f t="shared" si="69"/>
-        <v>1780.5206284486358</v>
+        <v>1757.2250196740608</v>
       </c>
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
@@ -8657,16 +8645,15 @@
       <c r="DL54" s="42"/>
     </row>
     <row r="55" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="66"/>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
       <c r="L55" s="42"/>
       <c r="M55" s="42"/>
       <c r="N55" s="42"/>
@@ -8774,26 +8761,27 @@
       <c r="DL55" s="42"/>
     </row>
     <row r="56" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62">
+        <f t="shared" ref="C56:E56" si="70">C10/B10-1</f>
+        <v>5.5370365903663954E-2</v>
+      </c>
       <c r="D56" s="62">
-        <f>(D44/D28)/$C$2</f>
-        <v>0.14114549671050222</v>
+        <f t="shared" si="70"/>
+        <v>0.162501771242338</v>
       </c>
       <c r="E56" s="62">
-        <f>(E44/E28)/$C$2</f>
-        <v>0.18807154268784557</v>
-      </c>
-      <c r="F56" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+        <f t="shared" si="70"/>
+        <v>0.20877699312687747</v>
+      </c>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
       <c r="K56" s="42"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
@@ -8902,15 +8890,16 @@
       <c r="DL56" s="42"/>
     </row>
     <row r="57" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="66"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
       <c r="N57" s="42"/>
@@ -9017,948 +9006,287 @@
       <c r="DK57" s="42"/>
       <c r="DL57" s="42"/>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="62">
-        <f>B26/B18-1</f>
-        <v>-3.0121052631578951</v>
-      </c>
-      <c r="C58" s="62">
-        <f t="shared" ref="C58:J58" si="70">C26/C18-1</f>
-        <v>-1.4241851851851852</v>
-      </c>
+    <row r="58" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="62">
-        <f t="shared" si="70"/>
-        <v>-2.4305943396226413</v>
-      </c>
-      <c r="E58" s="62">
-        <f t="shared" si="70"/>
-        <v>-1.83578021978022</v>
-      </c>
-      <c r="F58" s="62">
-        <f t="shared" si="70"/>
-        <v>-1.676900699300699</v>
-      </c>
-      <c r="G58" s="62">
-        <f t="shared" si="70"/>
-        <v>-1.5875038125510843</v>
-      </c>
-      <c r="H58" s="62">
-        <f t="shared" si="70"/>
-        <v>-1.4818658408698719</v>
-      </c>
-      <c r="I58" s="62">
-        <f t="shared" si="70"/>
-        <v>-1.3583440482102387</v>
-      </c>
-      <c r="J58" s="62">
-        <f t="shared" si="70"/>
-        <v>-1.2150976430106135</v>
-      </c>
-      <c r="K58" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-      <c r="AH58" s="42"/>
-      <c r="AI58" s="42"/>
-      <c r="AJ58" s="42"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
-      <c r="BM58" s="42"/>
-      <c r="BN58" s="42"/>
-      <c r="BO58" s="42"/>
-      <c r="BP58" s="42"/>
-      <c r="BQ58" s="42"/>
-      <c r="BR58" s="42"/>
-      <c r="BS58" s="42"/>
-      <c r="BT58" s="42"/>
-      <c r="BU58" s="42"/>
-      <c r="BV58" s="42"/>
-      <c r="BW58" s="42"/>
-      <c r="BX58" s="42"/>
-      <c r="BY58" s="42"/>
-      <c r="BZ58" s="42"/>
-      <c r="CA58" s="42"/>
-      <c r="CB58" s="42"/>
-      <c r="CC58" s="42"/>
-      <c r="CD58" s="42"/>
-      <c r="CE58" s="42"/>
-      <c r="CF58" s="42"/>
-      <c r="CG58" s="42"/>
-      <c r="CH58" s="42"/>
-      <c r="CI58" s="42"/>
-      <c r="CJ58" s="42"/>
-      <c r="CK58" s="42"/>
-      <c r="CL58" s="42"/>
-      <c r="CM58" s="42"/>
-      <c r="CN58" s="42"/>
-      <c r="CO58" s="42"/>
-      <c r="CP58" s="42"/>
-      <c r="CQ58" s="42"/>
-      <c r="CR58" s="42"/>
-      <c r="CS58" s="42"/>
-      <c r="CT58" s="42"/>
-      <c r="CU58" s="42"/>
-      <c r="CV58" s="42"/>
-      <c r="CW58" s="42"/>
-      <c r="CX58" s="42"/>
-      <c r="CY58" s="42"/>
-      <c r="CZ58" s="42"/>
-      <c r="DA58" s="42"/>
-      <c r="DB58" s="42"/>
-      <c r="DC58" s="42"/>
-      <c r="DD58" s="42"/>
-      <c r="DE58" s="42"/>
-      <c r="DF58" s="42"/>
-      <c r="DG58" s="42"/>
-      <c r="DH58" s="42"/>
-      <c r="DI58" s="42"/>
-      <c r="DJ58" s="42"/>
-      <c r="DK58" s="42"/>
-      <c r="DL58" s="42"/>
-    </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="67" t="str">
-        <f t="shared" ref="B59:J59" si="71">ROUND($C$4/B18,0)&amp;"x"</f>
-        <v>70x</v>
-      </c>
-      <c r="C59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>50x</v>
-      </c>
-      <c r="D59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>25x</v>
-      </c>
-      <c r="E59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>29x</v>
-      </c>
-      <c r="F59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>27x</v>
-      </c>
-      <c r="G59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>24x</v>
-      </c>
-      <c r="H59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>22x</v>
-      </c>
-      <c r="I59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>20x</v>
-      </c>
-      <c r="J59" s="67" t="str">
-        <f t="shared" si="71"/>
-        <v>18x</v>
-      </c>
-      <c r="K59" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="42"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="42"/>
-      <c r="AT59" s="42"/>
-      <c r="AU59" s="42"/>
-      <c r="AV59" s="42"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="42"/>
-      <c r="AZ59" s="42"/>
-      <c r="BA59" s="42"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
-      <c r="BM59" s="42"/>
-      <c r="BN59" s="42"/>
-      <c r="BO59" s="42"/>
-      <c r="BP59" s="42"/>
-      <c r="BQ59" s="42"/>
-      <c r="BR59" s="42"/>
-      <c r="BS59" s="42"/>
-      <c r="BT59" s="42"/>
-      <c r="BU59" s="42"/>
-      <c r="BV59" s="42"/>
-      <c r="BW59" s="42"/>
-      <c r="BX59" s="42"/>
-      <c r="BY59" s="42"/>
-      <c r="BZ59" s="42"/>
-      <c r="CA59" s="42"/>
-      <c r="CB59" s="42"/>
-      <c r="CC59" s="42"/>
-      <c r="CD59" s="42"/>
-      <c r="CE59" s="42"/>
-      <c r="CF59" s="42"/>
-      <c r="CG59" s="42"/>
-      <c r="CH59" s="42"/>
-      <c r="CI59" s="42"/>
-      <c r="CJ59" s="42"/>
-      <c r="CK59" s="42"/>
-      <c r="CL59" s="42"/>
-      <c r="CM59" s="42"/>
-      <c r="CN59" s="42"/>
-      <c r="CO59" s="42"/>
-      <c r="CP59" s="42"/>
-      <c r="CQ59" s="42"/>
-      <c r="CR59" s="42"/>
-      <c r="CS59" s="42"/>
-      <c r="CT59" s="42"/>
-      <c r="CU59" s="42"/>
-      <c r="CV59" s="42"/>
-      <c r="CW59" s="42"/>
-      <c r="CX59" s="42"/>
-      <c r="CY59" s="42"/>
-      <c r="CZ59" s="42"/>
-      <c r="DA59" s="42"/>
-      <c r="DB59" s="42"/>
-      <c r="DC59" s="42"/>
-      <c r="DD59" s="42"/>
-      <c r="DE59" s="42"/>
-      <c r="DF59" s="42"/>
-      <c r="DG59" s="42"/>
-      <c r="DH59" s="42"/>
-      <c r="DI59" s="42"/>
-      <c r="DJ59" s="42"/>
-      <c r="DK59" s="42"/>
-      <c r="DL59" s="42"/>
-    </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-      <c r="AH60" s="42"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="42"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="42"/>
-      <c r="AT60" s="42"/>
-      <c r="AU60" s="42"/>
-      <c r="AV60" s="42"/>
-      <c r="AW60" s="42"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="42"/>
-      <c r="AZ60" s="42"/>
-      <c r="BA60" s="42"/>
-      <c r="BB60" s="42"/>
-      <c r="BC60" s="42"/>
-      <c r="BD60" s="42"/>
-      <c r="BE60" s="42"/>
-      <c r="BF60" s="42"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="42"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
-      <c r="BM60" s="42"/>
-      <c r="BN60" s="42"/>
-      <c r="BO60" s="42"/>
-      <c r="BP60" s="42"/>
-      <c r="BQ60" s="42"/>
-      <c r="BR60" s="42"/>
-      <c r="BS60" s="42"/>
-      <c r="BT60" s="42"/>
-      <c r="BU60" s="42"/>
-      <c r="BV60" s="42"/>
-      <c r="BW60" s="42"/>
-      <c r="BX60" s="42"/>
-      <c r="BY60" s="42"/>
-      <c r="BZ60" s="42"/>
-      <c r="CA60" s="42"/>
-      <c r="CB60" s="42"/>
-      <c r="CC60" s="42"/>
-      <c r="CD60" s="42"/>
-      <c r="CE60" s="42"/>
-      <c r="CF60" s="42"/>
-      <c r="CG60" s="42"/>
-      <c r="CH60" s="42"/>
-      <c r="CI60" s="42"/>
-      <c r="CJ60" s="42"/>
-      <c r="CK60" s="42"/>
-      <c r="CL60" s="42"/>
-      <c r="CM60" s="42"/>
-      <c r="CN60" s="42"/>
-      <c r="CO60" s="42"/>
-      <c r="CP60" s="42"/>
-      <c r="CQ60" s="42"/>
-      <c r="CR60" s="42"/>
-      <c r="CS60" s="42"/>
-      <c r="CT60" s="42"/>
-      <c r="CU60" s="42"/>
-      <c r="CV60" s="42"/>
-      <c r="CW60" s="42"/>
-      <c r="CX60" s="42"/>
-      <c r="CY60" s="42"/>
-      <c r="CZ60" s="42"/>
-      <c r="DA60" s="42"/>
-      <c r="DB60" s="42"/>
-      <c r="DC60" s="42"/>
-      <c r="DD60" s="42"/>
-      <c r="DE60" s="42"/>
-      <c r="DF60" s="42"/>
-      <c r="DG60" s="42"/>
-      <c r="DH60" s="42"/>
-      <c r="DI60" s="42"/>
-      <c r="DJ60" s="42"/>
-      <c r="DK60" s="42"/>
-      <c r="DL60" s="42"/>
-    </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62">
-        <f t="shared" ref="C61:J61" si="72">C10/B10-1</f>
-        <v>5.5370365903663954E-2</v>
-      </c>
-      <c r="D61" s="62">
-        <f t="shared" si="72"/>
-        <v>0.162501771242338</v>
-      </c>
-      <c r="E61" s="62">
-        <f t="shared" si="72"/>
-        <v>0.20877699312687747</v>
-      </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="42"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
-      <c r="BB61" s="42"/>
-      <c r="BC61" s="42"/>
-      <c r="BD61" s="42"/>
-      <c r="BE61" s="42"/>
-      <c r="BF61" s="42"/>
-      <c r="BG61" s="42"/>
-      <c r="BH61" s="42"/>
-      <c r="BI61" s="42"/>
-      <c r="BJ61" s="42"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
-      <c r="BM61" s="42"/>
-      <c r="BN61" s="42"/>
-      <c r="BO61" s="42"/>
-      <c r="BP61" s="42"/>
-      <c r="BQ61" s="42"/>
-      <c r="BR61" s="42"/>
-      <c r="BS61" s="42"/>
-      <c r="BT61" s="42"/>
-      <c r="BU61" s="42"/>
-      <c r="BV61" s="42"/>
-      <c r="BW61" s="42"/>
-      <c r="BX61" s="42"/>
-      <c r="BY61" s="42"/>
-      <c r="BZ61" s="42"/>
-      <c r="CA61" s="42"/>
-      <c r="CB61" s="42"/>
-      <c r="CC61" s="42"/>
-      <c r="CD61" s="42"/>
-      <c r="CE61" s="42"/>
-      <c r="CF61" s="42"/>
-      <c r="CG61" s="42"/>
-      <c r="CH61" s="42"/>
-      <c r="CI61" s="42"/>
-      <c r="CJ61" s="42"/>
-      <c r="CK61" s="42"/>
-      <c r="CL61" s="42"/>
-      <c r="CM61" s="42"/>
-      <c r="CN61" s="42"/>
-      <c r="CO61" s="42"/>
-      <c r="CP61" s="42"/>
-      <c r="CQ61" s="42"/>
-      <c r="CR61" s="42"/>
-      <c r="CS61" s="42"/>
-      <c r="CT61" s="42"/>
-      <c r="CU61" s="42"/>
-      <c r="CV61" s="42"/>
-      <c r="CW61" s="42"/>
-      <c r="CX61" s="42"/>
-      <c r="CY61" s="42"/>
-      <c r="CZ61" s="42"/>
-      <c r="DA61" s="42"/>
-      <c r="DB61" s="42"/>
-      <c r="DC61" s="42"/>
-      <c r="DD61" s="42"/>
-      <c r="DE61" s="42"/>
-      <c r="DF61" s="42"/>
-      <c r="DG61" s="42"/>
-      <c r="DH61" s="42"/>
-      <c r="DI61" s="42"/>
-      <c r="DJ61" s="42"/>
-      <c r="DK61" s="42"/>
-      <c r="DL61" s="42"/>
-    </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
-      <c r="AH62" s="42"/>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="42"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
-      <c r="AQ62" s="42"/>
-      <c r="AR62" s="42"/>
-      <c r="AS62" s="42"/>
-      <c r="AT62" s="42"/>
-      <c r="AU62" s="42"/>
-      <c r="AV62" s="42"/>
-      <c r="AW62" s="42"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="42"/>
-      <c r="AZ62" s="42"/>
-      <c r="BA62" s="42"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="42"/>
-      <c r="BD62" s="42"/>
-      <c r="BE62" s="42"/>
-      <c r="BF62" s="42"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
-      <c r="BM62" s="42"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="42"/>
-      <c r="BP62" s="42"/>
-      <c r="BQ62" s="42"/>
-      <c r="BR62" s="42"/>
-      <c r="BS62" s="42"/>
-      <c r="BT62" s="42"/>
-      <c r="BU62" s="42"/>
-      <c r="BV62" s="42"/>
-      <c r="BW62" s="42"/>
-      <c r="BX62" s="42"/>
-      <c r="BY62" s="42"/>
-      <c r="BZ62" s="42"/>
-      <c r="CA62" s="42"/>
-      <c r="CB62" s="42"/>
-      <c r="CC62" s="42"/>
-      <c r="CD62" s="42"/>
-      <c r="CE62" s="42"/>
-      <c r="CF62" s="42"/>
-      <c r="CG62" s="42"/>
-      <c r="CH62" s="42"/>
-      <c r="CI62" s="42"/>
-      <c r="CJ62" s="42"/>
-      <c r="CK62" s="42"/>
-      <c r="CL62" s="42"/>
-      <c r="CM62" s="42"/>
-      <c r="CN62" s="42"/>
-      <c r="CO62" s="42"/>
-      <c r="CP62" s="42"/>
-      <c r="CQ62" s="42"/>
-      <c r="CR62" s="42"/>
-      <c r="CS62" s="42"/>
-      <c r="CT62" s="42"/>
-      <c r="CU62" s="42"/>
-      <c r="CV62" s="42"/>
-      <c r="CW62" s="42"/>
-      <c r="CX62" s="42"/>
-      <c r="CY62" s="42"/>
-      <c r="CZ62" s="42"/>
-      <c r="DA62" s="42"/>
-      <c r="DB62" s="42"/>
-      <c r="DC62" s="42"/>
-      <c r="DD62" s="42"/>
-      <c r="DE62" s="42"/>
-      <c r="DF62" s="42"/>
-      <c r="DG62" s="42"/>
-      <c r="DH62" s="42"/>
-      <c r="DI62" s="42"/>
-      <c r="DJ62" s="42"/>
-      <c r="DK62" s="42"/>
-      <c r="DL62" s="42"/>
-    </row>
-    <row r="63" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62">
         <f>D12/C12-1</f>
         <v>6.707068573795083E-2</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E58" s="62">
         <f>E12/D12-1</f>
         <v>0.11472228621968772</v>
       </c>
-      <c r="F63" s="62">
-        <f t="shared" ref="F63:J63" si="73">F12/E12-1</f>
+      <c r="F58" s="62">
+        <f t="shared" ref="F58:J58" si="71">F12/E12-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="G63" s="62">
-        <f t="shared" si="73"/>
+      <c r="G58" s="62">
+        <f t="shared" si="71"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H63" s="62">
-        <f t="shared" si="73"/>
+      <c r="H58" s="62">
+        <f t="shared" si="71"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="I63" s="62">
-        <f t="shared" si="73"/>
+      <c r="I58" s="62">
+        <f t="shared" si="71"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J63" s="62">
-        <f t="shared" si="73"/>
+      <c r="J58" s="62">
+        <f t="shared" si="71"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="62"/>
-      <c r="AI63" s="62"/>
-      <c r="AJ63" s="62"/>
-      <c r="AK63" s="62"/>
-      <c r="AL63" s="62"/>
-      <c r="AM63" s="62"/>
-      <c r="AN63" s="62"/>
-      <c r="AO63" s="62"/>
-      <c r="AP63" s="62"/>
-      <c r="AQ63" s="62"/>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="62"/>
-      <c r="AT63" s="62"/>
-      <c r="AU63" s="62"/>
-      <c r="AV63" s="62"/>
-      <c r="AW63" s="62"/>
-      <c r="AX63" s="62"/>
-      <c r="AY63" s="62"/>
-      <c r="AZ63" s="62"/>
-      <c r="BA63" s="62"/>
-      <c r="BB63" s="62"/>
-      <c r="BC63" s="62"/>
-      <c r="BD63" s="62"/>
-      <c r="BE63" s="62"/>
-      <c r="BF63" s="62"/>
-      <c r="BG63" s="62"/>
-      <c r="BH63" s="62"/>
-      <c r="BI63" s="62"/>
-      <c r="BJ63" s="62"/>
-      <c r="BK63" s="62"/>
-      <c r="BL63" s="62"/>
-      <c r="BM63" s="62"/>
-      <c r="BN63" s="62"/>
-      <c r="BO63" s="62"/>
-      <c r="BP63" s="62"/>
-      <c r="BQ63" s="62"/>
-      <c r="BR63" s="62"/>
-      <c r="BS63" s="62"/>
-      <c r="BT63" s="62"/>
-      <c r="BU63" s="62"/>
-      <c r="BV63" s="62"/>
-      <c r="BW63" s="62"/>
-      <c r="BX63" s="62"/>
-      <c r="BY63" s="62"/>
-      <c r="BZ63" s="62"/>
-      <c r="CA63" s="62"/>
-      <c r="CB63" s="62"/>
-      <c r="CC63" s="62"/>
-      <c r="CD63" s="62"/>
-      <c r="CE63" s="62"/>
-      <c r="CF63" s="62"/>
-      <c r="CG63" s="62"/>
-      <c r="CH63" s="62"/>
-      <c r="CI63" s="62"/>
-      <c r="CJ63" s="62"/>
-      <c r="CK63" s="62"/>
-      <c r="CL63" s="62"/>
-      <c r="CM63" s="62"/>
-      <c r="CN63" s="62"/>
-      <c r="CO63" s="62"/>
-      <c r="CP63" s="62"/>
-      <c r="CQ63" s="62"/>
-      <c r="CR63" s="62"/>
-      <c r="CS63" s="62"/>
-      <c r="CT63" s="62"/>
-      <c r="CU63" s="62"/>
-      <c r="CV63" s="62"/>
-      <c r="CW63" s="62"/>
-      <c r="CX63" s="62"/>
-      <c r="CY63" s="62"/>
-      <c r="CZ63" s="62"/>
-      <c r="DA63" s="62"/>
-      <c r="DB63" s="62"/>
-      <c r="DC63" s="62"/>
-      <c r="DD63" s="62"/>
-      <c r="DE63" s="62"/>
-      <c r="DF63" s="62"/>
-      <c r="DG63" s="62"/>
-      <c r="DH63" s="62"/>
-      <c r="DI63" s="62"/>
-      <c r="DJ63" s="62"/>
-      <c r="DK63" s="62"/>
-      <c r="DL63" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="62"/>
+      <c r="V58" s="62"/>
+      <c r="W58" s="62"/>
+      <c r="X58" s="62"/>
+      <c r="Y58" s="62"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="62"/>
+      <c r="AD58" s="62"/>
+      <c r="AE58" s="62"/>
+      <c r="AF58" s="62"/>
+      <c r="AG58" s="62"/>
+      <c r="AH58" s="62"/>
+      <c r="AI58" s="62"/>
+      <c r="AJ58" s="62"/>
+      <c r="AK58" s="62"/>
+      <c r="AL58" s="62"/>
+      <c r="AM58" s="62"/>
+      <c r="AN58" s="62"/>
+      <c r="AO58" s="62"/>
+      <c r="AP58" s="62"/>
+      <c r="AQ58" s="62"/>
+      <c r="AR58" s="62"/>
+      <c r="AS58" s="62"/>
+      <c r="AT58" s="62"/>
+      <c r="AU58" s="62"/>
+      <c r="AV58" s="62"/>
+      <c r="AW58" s="62"/>
+      <c r="AX58" s="62"/>
+      <c r="AY58" s="62"/>
+      <c r="AZ58" s="62"/>
+      <c r="BA58" s="62"/>
+      <c r="BB58" s="62"/>
+      <c r="BC58" s="62"/>
+      <c r="BD58" s="62"/>
+      <c r="BE58" s="62"/>
+      <c r="BF58" s="62"/>
+      <c r="BG58" s="62"/>
+      <c r="BH58" s="62"/>
+      <c r="BI58" s="62"/>
+      <c r="BJ58" s="62"/>
+      <c r="BK58" s="62"/>
+      <c r="BL58" s="62"/>
+      <c r="BM58" s="62"/>
+      <c r="BN58" s="62"/>
+      <c r="BO58" s="62"/>
+      <c r="BP58" s="62"/>
+      <c r="BQ58" s="62"/>
+      <c r="BR58" s="62"/>
+      <c r="BS58" s="62"/>
+      <c r="BT58" s="62"/>
+      <c r="BU58" s="62"/>
+      <c r="BV58" s="62"/>
+      <c r="BW58" s="62"/>
+      <c r="BX58" s="62"/>
+      <c r="BY58" s="62"/>
+      <c r="BZ58" s="62"/>
+      <c r="CA58" s="62"/>
+      <c r="CB58" s="62"/>
+      <c r="CC58" s="62"/>
+      <c r="CD58" s="62"/>
+      <c r="CE58" s="62"/>
+      <c r="CF58" s="62"/>
+      <c r="CG58" s="62"/>
+      <c r="CH58" s="62"/>
+      <c r="CI58" s="62"/>
+      <c r="CJ58" s="62"/>
+      <c r="CK58" s="62"/>
+      <c r="CL58" s="62"/>
+      <c r="CM58" s="62"/>
+      <c r="CN58" s="62"/>
+      <c r="CO58" s="62"/>
+      <c r="CP58" s="62"/>
+      <c r="CQ58" s="62"/>
+      <c r="CR58" s="62"/>
+      <c r="CS58" s="62"/>
+      <c r="CT58" s="62"/>
+      <c r="CU58" s="62"/>
+      <c r="CV58" s="62"/>
+      <c r="CW58" s="62"/>
+      <c r="CX58" s="62"/>
+      <c r="CY58" s="62"/>
+      <c r="CZ58" s="62"/>
+      <c r="DA58" s="62"/>
+      <c r="DB58" s="62"/>
+      <c r="DC58" s="62"/>
+      <c r="DD58" s="62"/>
+      <c r="DE58" s="62"/>
+      <c r="DF58" s="62"/>
+      <c r="DG58" s="62"/>
+      <c r="DH58" s="62"/>
+      <c r="DI58" s="62"/>
+      <c r="DJ58" s="62"/>
+      <c r="DK58" s="62"/>
+      <c r="DL58" s="62"/>
     </row>
-    <row r="64" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="20" t="s">
+    <row r="59" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62">
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62">
         <f>D13/C13-1</f>
         <v>8.943276840033354E-2</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E59" s="62">
         <f>E13/D13-1</f>
         <v>8.4375012565823582E-2</v>
       </c>
-      <c r="F64" s="62">
-        <f t="shared" ref="F64:J64" si="74">F13/E13-1</f>
+      <c r="F59" s="62">
+        <f t="shared" ref="F59:J59" si="72">F13/E13-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="G64" s="62">
-        <f t="shared" si="74"/>
+      <c r="G59" s="62">
+        <f t="shared" si="72"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H64" s="62">
-        <f t="shared" si="74"/>
+      <c r="H59" s="62">
+        <f t="shared" si="72"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="I64" s="62">
-        <f t="shared" si="74"/>
+      <c r="I59" s="62">
+        <f t="shared" si="72"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J64" s="62">
-        <f t="shared" si="74"/>
+      <c r="J59" s="62">
+        <f t="shared" si="72"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
-      <c r="AA64" s="62"/>
-      <c r="AB64" s="62"/>
-      <c r="AC64" s="62"/>
-      <c r="AD64" s="62"/>
-      <c r="AE64" s="62"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
-      <c r="AH64" s="62"/>
-      <c r="AI64" s="62"/>
-      <c r="AJ64" s="62"/>
-      <c r="AK64" s="62"/>
-      <c r="AL64" s="62"/>
-      <c r="AM64" s="62"/>
-      <c r="AN64" s="62"/>
-      <c r="AO64" s="62"/>
-      <c r="AP64" s="62"/>
-      <c r="AQ64" s="62"/>
-      <c r="AR64" s="62"/>
-      <c r="AS64" s="62"/>
-      <c r="AT64" s="62"/>
-      <c r="AU64" s="62"/>
-      <c r="AV64" s="62"/>
-      <c r="AW64" s="62"/>
-      <c r="AX64" s="62"/>
-      <c r="AY64" s="62"/>
-      <c r="AZ64" s="62"/>
-      <c r="BA64" s="62"/>
-      <c r="BB64" s="62"/>
-      <c r="BC64" s="62"/>
-      <c r="BD64" s="62"/>
-      <c r="BE64" s="62"/>
-      <c r="BF64" s="62"/>
-      <c r="BG64" s="62"/>
-      <c r="BH64" s="62"/>
-      <c r="BI64" s="62"/>
-      <c r="BJ64" s="62"/>
-      <c r="BK64" s="62"/>
-      <c r="BL64" s="62"/>
-      <c r="BM64" s="62"/>
-      <c r="BN64" s="62"/>
-      <c r="BO64" s="62"/>
-      <c r="BP64" s="62"/>
-      <c r="BQ64" s="62"/>
-      <c r="BR64" s="62"/>
-      <c r="BS64" s="62"/>
-      <c r="BT64" s="62"/>
-      <c r="BU64" s="62"/>
-      <c r="BV64" s="62"/>
-      <c r="BW64" s="62"/>
-      <c r="BX64" s="62"/>
-      <c r="BY64" s="62"/>
-      <c r="BZ64" s="62"/>
-      <c r="CA64" s="62"/>
-      <c r="CB64" s="62"/>
-      <c r="CC64" s="62"/>
-      <c r="CD64" s="62"/>
-      <c r="CE64" s="62"/>
-      <c r="CF64" s="62"/>
-      <c r="CG64" s="62"/>
-      <c r="CH64" s="62"/>
-      <c r="CI64" s="62"/>
-      <c r="CJ64" s="62"/>
-      <c r="CK64" s="62"/>
-      <c r="CL64" s="62"/>
-      <c r="CM64" s="62"/>
-      <c r="CN64" s="62"/>
-      <c r="CO64" s="62"/>
-      <c r="CP64" s="62"/>
-      <c r="CQ64" s="62"/>
-      <c r="CR64" s="62"/>
-      <c r="CS64" s="62"/>
-      <c r="CT64" s="62"/>
-      <c r="CU64" s="62"/>
-      <c r="CV64" s="62"/>
-      <c r="CW64" s="62"/>
-      <c r="CX64" s="62"/>
-      <c r="CY64" s="62"/>
-      <c r="CZ64" s="62"/>
-      <c r="DA64" s="62"/>
-      <c r="DB64" s="62"/>
-      <c r="DC64" s="62"/>
-      <c r="DD64" s="62"/>
-      <c r="DE64" s="62"/>
-      <c r="DF64" s="62"/>
-      <c r="DG64" s="62"/>
-      <c r="DH64" s="62"/>
-      <c r="DI64" s="62"/>
-      <c r="DJ64" s="62"/>
-      <c r="DK64" s="62"/>
-      <c r="DL64" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="62"/>
+      <c r="V59" s="62"/>
+      <c r="W59" s="62"/>
+      <c r="X59" s="62"/>
+      <c r="Y59" s="62"/>
+      <c r="Z59" s="62"/>
+      <c r="AA59" s="62"/>
+      <c r="AB59" s="62"/>
+      <c r="AC59" s="62"/>
+      <c r="AD59" s="62"/>
+      <c r="AE59" s="62"/>
+      <c r="AF59" s="62"/>
+      <c r="AG59" s="62"/>
+      <c r="AH59" s="62"/>
+      <c r="AI59" s="62"/>
+      <c r="AJ59" s="62"/>
+      <c r="AK59" s="62"/>
+      <c r="AL59" s="62"/>
+      <c r="AM59" s="62"/>
+      <c r="AN59" s="62"/>
+      <c r="AO59" s="62"/>
+      <c r="AP59" s="62"/>
+      <c r="AQ59" s="62"/>
+      <c r="AR59" s="62"/>
+      <c r="AS59" s="62"/>
+      <c r="AT59" s="62"/>
+      <c r="AU59" s="62"/>
+      <c r="AV59" s="62"/>
+      <c r="AW59" s="62"/>
+      <c r="AX59" s="62"/>
+      <c r="AY59" s="62"/>
+      <c r="AZ59" s="62"/>
+      <c r="BA59" s="62"/>
+      <c r="BB59" s="62"/>
+      <c r="BC59" s="62"/>
+      <c r="BD59" s="62"/>
+      <c r="BE59" s="62"/>
+      <c r="BF59" s="62"/>
+      <c r="BG59" s="62"/>
+      <c r="BH59" s="62"/>
+      <c r="BI59" s="62"/>
+      <c r="BJ59" s="62"/>
+      <c r="BK59" s="62"/>
+      <c r="BL59" s="62"/>
+      <c r="BM59" s="62"/>
+      <c r="BN59" s="62"/>
+      <c r="BO59" s="62"/>
+      <c r="BP59" s="62"/>
+      <c r="BQ59" s="62"/>
+      <c r="BR59" s="62"/>
+      <c r="BS59" s="62"/>
+      <c r="BT59" s="62"/>
+      <c r="BU59" s="62"/>
+      <c r="BV59" s="62"/>
+      <c r="BW59" s="62"/>
+      <c r="BX59" s="62"/>
+      <c r="BY59" s="62"/>
+      <c r="BZ59" s="62"/>
+      <c r="CA59" s="62"/>
+      <c r="CB59" s="62"/>
+      <c r="CC59" s="62"/>
+      <c r="CD59" s="62"/>
+      <c r="CE59" s="62"/>
+      <c r="CF59" s="62"/>
+      <c r="CG59" s="62"/>
+      <c r="CH59" s="62"/>
+      <c r="CI59" s="62"/>
+      <c r="CJ59" s="62"/>
+      <c r="CK59" s="62"/>
+      <c r="CL59" s="62"/>
+      <c r="CM59" s="62"/>
+      <c r="CN59" s="62"/>
+      <c r="CO59" s="62"/>
+      <c r="CP59" s="62"/>
+      <c r="CQ59" s="62"/>
+      <c r="CR59" s="62"/>
+      <c r="CS59" s="62"/>
+      <c r="CT59" s="62"/>
+      <c r="CU59" s="62"/>
+      <c r="CV59" s="62"/>
+      <c r="CW59" s="62"/>
+      <c r="CX59" s="62"/>
+      <c r="CY59" s="62"/>
+      <c r="CZ59" s="62"/>
+      <c r="DA59" s="62"/>
+      <c r="DB59" s="62"/>
+      <c r="DC59" s="62"/>
+      <c r="DD59" s="62"/>
+      <c r="DE59" s="62"/>
+      <c r="DF59" s="62"/>
+      <c r="DG59" s="62"/>
+      <c r="DH59" s="62"/>
+      <c r="DI59" s="62"/>
+      <c r="DJ59" s="62"/>
+      <c r="DK59" s="62"/>
+      <c r="DL59" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9976,11 +9304,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q46" sqref="Q46"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9998,7 +9326,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -10052,48 +9380,54 @@
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="69">
+      <c r="B2" s="68">
         <v>42825</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="70">
         <v>42916</v>
       </c>
-      <c r="D2" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="71">
+      <c r="D2" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="70">
         <v>43100</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="68">
         <v>43190</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="70">
         <v>43281</v>
       </c>
-      <c r="H2" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="71">
+      <c r="H2" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="70">
         <v>43465</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="68">
         <v>43555</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="70">
         <v>43646</v>
       </c>
-      <c r="L2" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="71">
+      <c r="L2" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="70">
         <v>43830</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="68">
         <v>43921</v>
+      </c>
+      <c r="O2" s="70">
+        <v>44012</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="69" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="23">
@@ -10135,8 +9469,12 @@
       <c r="N3" s="23">
         <v>88.265000000000001</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="O3" s="24">
+        <v>90.941000000000003</v>
+      </c>
+      <c r="P3" s="24">
+        <v>95.429000000000002</v>
+      </c>
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -10150,131 +9488,146 @@
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="81">
-        <f>B55/1000000</f>
+        <v>80</v>
+      </c>
+      <c r="B5" s="80">
+        <f t="shared" ref="B5:P5" si="0">B55/1000000</f>
         <v>0.59599999999999997</v>
       </c>
-      <c r="C5" s="81">
-        <f>C55/1000000</f>
+      <c r="C5" s="80">
+        <f t="shared" si="0"/>
         <v>0.59799999999999998</v>
       </c>
-      <c r="D5" s="81">
-        <f>D55/1000000</f>
+      <c r="D5" s="80">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="E5" s="81">
-        <f>E55/1000000</f>
+      <c r="E5" s="80">
+        <f t="shared" si="0"/>
         <v>0.60607699999999998</v>
       </c>
-      <c r="F5" s="79">
-        <f>F55/1000000</f>
+      <c r="F5" s="78">
+        <f t="shared" si="0"/>
         <v>0.61045700000000003</v>
       </c>
-      <c r="G5" s="81">
-        <f>G55/1000000</f>
+      <c r="G5" s="80">
+        <f t="shared" si="0"/>
         <v>0.61611099999999996</v>
       </c>
-      <c r="H5" s="81">
-        <f>H55/1000000</f>
+      <c r="H5" s="80">
+        <f t="shared" si="0"/>
         <v>0.62107100000000004</v>
       </c>
-      <c r="I5" s="81">
-        <f>I55/1000000</f>
+      <c r="I5" s="80">
+        <f t="shared" si="0"/>
         <v>0.64672700000000005</v>
       </c>
-      <c r="J5" s="79">
-        <f>J55/1000000</f>
+      <c r="J5" s="78">
+        <f t="shared" si="0"/>
         <v>0.67086199999999996</v>
       </c>
-      <c r="K5" s="81">
-        <f>K55/1000000</f>
+      <c r="K5" s="80">
+        <f t="shared" si="0"/>
         <v>0.69245500000000004</v>
       </c>
-      <c r="L5" s="81">
-        <f>L55/1000000</f>
+      <c r="L5" s="80">
+        <f t="shared" si="0"/>
         <v>0.71321699999999999</v>
       </c>
-      <c r="M5" s="81">
-        <f>M55/1000000</f>
+      <c r="M5" s="80">
+        <f t="shared" si="0"/>
         <v>0.72092100000000003</v>
       </c>
-      <c r="N5" s="79">
-        <f>N55/1000000</f>
+      <c r="N5" s="78">
+        <f t="shared" si="0"/>
         <v>0.74617999999999995</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="O5" s="80">
+        <f t="shared" si="0"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="P5" s="80">
+        <f t="shared" si="0"/>
+        <v>0.80300000000000005</v>
+      </c>
       <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="82">
-        <f>B3/B5</f>
+      <c r="B6" s="81">
+        <f t="shared" ref="B6:P6" si="1">B3/B5</f>
         <v>88.81543624161074</v>
       </c>
-      <c r="C6" s="82">
-        <f>C3/C5</f>
+      <c r="C6" s="81">
+        <f t="shared" si="1"/>
         <v>89.494983277591984</v>
       </c>
-      <c r="D6" s="82">
-        <f>D3/D5</f>
+      <c r="D6" s="81">
+        <f t="shared" si="1"/>
         <v>92.181666666666672</v>
       </c>
-      <c r="E6" s="82">
-        <f>E3/E5</f>
+      <c r="E6" s="81">
+        <f t="shared" si="1"/>
         <v>94.067255480739249</v>
       </c>
-      <c r="F6" s="80">
-        <f>F3/F5</f>
+      <c r="F6" s="79">
+        <f t="shared" si="1"/>
         <v>95.815102456028839</v>
       </c>
-      <c r="G6" s="82">
-        <f>G3/G5</f>
+      <c r="G6" s="81">
+        <f t="shared" si="1"/>
         <v>101.76088399655258</v>
       </c>
-      <c r="H6" s="82">
-        <f>H3/H5</f>
+      <c r="H6" s="81">
+        <f t="shared" si="1"/>
         <v>104.98799654145822</v>
       </c>
-      <c r="I6" s="82">
-        <f>I3/I5</f>
+      <c r="I6" s="81">
+        <f t="shared" si="1"/>
         <v>105.03968444181238</v>
       </c>
-      <c r="J6" s="80">
-        <f>J3/J5</f>
+      <c r="J6" s="79">
+        <f t="shared" si="1"/>
         <v>102.31761524724908</v>
       </c>
-      <c r="K6" s="82">
-        <f>K3/K5</f>
+      <c r="K6" s="81">
+        <f t="shared" si="1"/>
         <v>108.51102237690534</v>
       </c>
-      <c r="L6" s="82">
-        <f>L3/L5</f>
+      <c r="L6" s="81">
+        <f t="shared" si="1"/>
         <v>111.21019269030322</v>
       </c>
-      <c r="M6" s="82">
-        <f>M3/M5</f>
+      <c r="M6" s="81">
+        <f t="shared" si="1"/>
         <v>116.96704631991577</v>
       </c>
-      <c r="N6" s="80">
-        <f>N3/N5</f>
+      <c r="N6" s="79">
+        <f t="shared" si="1"/>
         <v>118.28915275134686</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="O6" s="81">
+        <f t="shared" si="1"/>
+        <v>116.44174135723432</v>
+      </c>
+      <c r="P6" s="81">
+        <f t="shared" si="1"/>
+        <v>118.84059775840598</v>
+      </c>
       <c r="Q6" s="48"/>
     </row>
-    <row r="7" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="43" t="s">
-        <v>96</v>
+    <row r="7" spans="1:17" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="85">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -10282,62 +9635,68 @@
         <v>4</v>
       </c>
       <c r="B8" s="26">
-        <f>B6*B5</f>
+        <f t="shared" ref="B8:P8" si="2">B6*B5</f>
         <v>52.933999999999997</v>
       </c>
       <c r="C8" s="26">
-        <f>C6*C5</f>
+        <f t="shared" si="2"/>
         <v>53.518000000000008</v>
       </c>
       <c r="D8" s="26">
-        <f>D6*D5</f>
+        <f t="shared" si="2"/>
         <v>55.309000000000005</v>
       </c>
       <c r="E8" s="26">
-        <f>E6*E5</f>
+        <f t="shared" si="2"/>
         <v>57.012</v>
       </c>
       <c r="F8" s="27">
-        <f>F6*F5</f>
+        <f t="shared" si="2"/>
         <v>58.491</v>
       </c>
       <c r="G8" s="26">
-        <f>G6*G5</f>
+        <f t="shared" si="2"/>
         <v>62.696000000000005</v>
       </c>
       <c r="H8" s="26">
-        <f>H6*H5</f>
+        <f t="shared" si="2"/>
         <v>65.204999999999998</v>
       </c>
       <c r="I8" s="26">
-        <f>I6*I5</f>
+        <f t="shared" si="2"/>
         <v>67.932000000000002</v>
       </c>
       <c r="J8" s="27">
-        <f>J6*J5</f>
+        <f t="shared" si="2"/>
         <v>68.641000000000005</v>
       </c>
       <c r="K8" s="26">
-        <f>K6*K5</f>
+        <f t="shared" si="2"/>
         <v>75.138999999999996</v>
       </c>
       <c r="L8" s="26">
-        <f>L6*L5</f>
+        <f t="shared" si="2"/>
         <v>79.316999999999993</v>
       </c>
       <c r="M8" s="26">
-        <f>M6*M5</f>
+        <f t="shared" si="2"/>
         <v>84.323999999999998</v>
       </c>
       <c r="N8" s="27">
-        <f>N6*N5</f>
+        <f t="shared" si="2"/>
         <v>88.265000000000001</v>
       </c>
-      <c r="O8" s="57">
-        <v>90</v>
-      </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
+      <c r="O8" s="26">
+        <f t="shared" si="2"/>
+        <v>90.941000000000003</v>
+      </c>
+      <c r="P8" s="26">
+        <f t="shared" si="2"/>
+        <v>95.429000000000002</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
@@ -10382,8 +9741,12 @@
       <c r="N9" s="23">
         <v>19.943999999999999</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="O9" s="58">
+        <v>21.009</v>
+      </c>
+      <c r="P9" s="58">
+        <v>21.899000000000001</v>
+      </c>
       <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10391,19 +9754,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="30">
-        <f t="shared" ref="B10:D10" si="0">B8-B9</f>
+        <f t="shared" ref="B10:D10" si="3">B8-B9</f>
         <v>37.504999999999995</v>
       </c>
       <c r="C10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.105000000000004</v>
       </c>
       <c r="D10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39.068000000000005</v>
       </c>
       <c r="E10" s="29">
-        <f t="shared" ref="E10" si="1">E8-E9</f>
+        <f t="shared" ref="E10" si="4">E8-E9</f>
         <v>41.415999999999997</v>
       </c>
       <c r="F10" s="30">
@@ -10415,35 +9778,41 @@
         <v>45.00500000000001</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:J10" si="2">H8-H9</f>
+        <f t="shared" ref="H10:J10" si="5">H8-H9</f>
         <v>41.991999999999997</v>
       </c>
       <c r="I10" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48.932000000000002</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51.111000000000004</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" ref="K10:M10" si="3">K8-K9</f>
+        <f t="shared" ref="K10:P10" si="6">K8-K9</f>
         <v>56.138999999999996</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59.690999999999988</v>
       </c>
       <c r="M10" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.003</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" ref="N10" si="4">N8-N9</f>
+        <f t="shared" ref="N10" si="7">N8-N9</f>
         <v>68.320999999999998</v>
       </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="O10" s="29">
+        <f t="shared" si="6"/>
+        <v>69.932000000000002</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="6"/>
+        <v>73.53</v>
+      </c>
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10489,8 +9858,12 @@
       <c r="N11" s="23">
         <v>27</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="O11" s="58">
+        <v>27</v>
+      </c>
+      <c r="P11" s="58">
+        <v>30</v>
+      </c>
       <c r="Q11" s="58"/>
     </row>
     <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10536,8 +9909,12 @@
       <c r="N12" s="23">
         <v>42</v>
       </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="O12" s="58">
+        <v>43</v>
+      </c>
+      <c r="P12" s="58">
+        <v>44</v>
+      </c>
       <c r="Q12" s="58"/>
     </row>
     <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10585,8 +9962,12 @@
       <c r="N13" s="23">
         <v>22</v>
       </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="O13" s="58">
+        <v>21</v>
+      </c>
+      <c r="P13" s="58">
+        <v>22</v>
+      </c>
       <c r="Q13" s="58"/>
     </row>
     <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10594,59 +9975,65 @@
         <v>10</v>
       </c>
       <c r="B14" s="30">
-        <f t="shared" ref="B14:D14" si="5">SUM(B11:B13)</f>
+        <f t="shared" ref="B14:D14" si="8">SUM(B11:B13)</f>
         <v>40</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="E14" s="29">
-        <f t="shared" ref="E14:F14" si="6">SUM(E11:E13)</f>
+        <f t="shared" ref="E14:F14" si="9">SUM(E11:E13)</f>
         <v>47</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="G14" s="29">
-        <f t="shared" ref="G14:H14" si="7">SUM(G11:G13)</f>
+        <f t="shared" ref="G14:H14" si="10">SUM(G11:G13)</f>
         <v>49</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="I14" s="29">
-        <f t="shared" ref="I14:K14" si="8">SUM(I11:I13)</f>
+        <f t="shared" ref="I14:K14" si="11">SUM(I11:I13)</f>
         <v>68</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="K14" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="L14" s="29">
-        <f t="shared" ref="L14:M14" si="9">SUM(L11:L13)</f>
+        <f t="shared" ref="L14:M14" si="12">SUM(L11:L13)</f>
         <v>75</v>
       </c>
       <c r="M14" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="N14" s="30">
-        <f t="shared" ref="N14" si="10">SUM(N11:N13)</f>
+        <f t="shared" ref="N14:O14" si="13">SUM(N11:N13)</f>
         <v>91</v>
       </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="O14" s="29">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" ref="P14" si="14">SUM(P11:P13)</f>
+        <v>96</v>
+      </c>
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10654,59 +10041,65 @@
         <v>11</v>
       </c>
       <c r="B15" s="30">
-        <f t="shared" ref="B15:H15" si="11">B10-B14</f>
+        <f t="shared" ref="B15:H15" si="15">B10-B14</f>
         <v>-2.4950000000000045</v>
       </c>
       <c r="C15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-7.894999999999996</v>
       </c>
       <c r="D15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-5.9319999999999951</v>
       </c>
       <c r="E15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-5.5840000000000032</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-7.5720000000000027</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-3.9949999999999903</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-94.00800000000001</v>
       </c>
       <c r="I15" s="29">
-        <f t="shared" ref="I15:K15" si="12">I10-I14</f>
+        <f t="shared" ref="I15:K15" si="16">I10-I14</f>
         <v>-19.067999999999998</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-16.888999999999996</v>
       </c>
       <c r="K15" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-15.861000000000004</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" ref="L15:M15" si="13">L10-L14</f>
+        <f t="shared" ref="L15:M15" si="17">L10-L14</f>
         <v>-15.309000000000012</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-19.997</v>
       </c>
       <c r="N15" s="30">
-        <f t="shared" ref="N15" si="14">N10-N14</f>
+        <f t="shared" ref="N15:O15" si="18">N10-N14</f>
         <v>-22.679000000000002</v>
       </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="O15" s="29">
+        <f t="shared" si="18"/>
+        <v>-21.067999999999998</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" ref="P15" si="19">P10-P14</f>
+        <v>-22.47</v>
+      </c>
       <c r="Q15" s="58"/>
     </row>
     <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10763,8 +10156,12 @@
       <c r="N16" s="23">
         <v>-1</v>
       </c>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="O16" s="58">
+        <v>-2</v>
+      </c>
+      <c r="P16" s="58">
+        <v>-2</v>
+      </c>
       <c r="Q16" s="58"/>
     </row>
     <row r="17" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10772,15 +10169,15 @@
         <v>13</v>
       </c>
       <c r="B17" s="30">
-        <f t="shared" ref="B17:C17" si="15">B15+B16</f>
+        <f t="shared" ref="B17:C17" si="20">B15+B16</f>
         <v>-2.4950000000000045</v>
       </c>
       <c r="C17" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-14.894999999999996</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" ref="D17:F17" si="16">D15+D16</f>
+        <f t="shared" ref="D17:F17" si="21">D15+D16</f>
         <v>-11.931999999999995</v>
       </c>
       <c r="E17" s="29">
@@ -10788,43 +10185,49 @@
         <v>-12.584000000000003</v>
       </c>
       <c r="F17" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-13.572000000000003</v>
       </c>
       <c r="G17" s="29">
-        <f t="shared" ref="G17" si="17">G15+G16</f>
+        <f t="shared" ref="G17" si="22">G15+G16</f>
         <v>-11.99499999999999</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" ref="H17:L17" si="18">H15+H16</f>
+        <f t="shared" ref="H17:L17" si="23">H15+H16</f>
         <v>-101.00800000000001</v>
       </c>
       <c r="I17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-25.067999999999998</v>
       </c>
       <c r="J17" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-18.888999999999996</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-18.861000000000004</v>
       </c>
       <c r="L17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-18.309000000000012</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" ref="M17" si="19">M15+M16</f>
+        <f t="shared" ref="M17" si="24">M15+M16</f>
         <v>-21.997</v>
       </c>
       <c r="N17" s="30">
-        <f t="shared" ref="N17" si="20">N15+N16</f>
+        <f t="shared" ref="N17:P17" si="25">N15+N16</f>
         <v>-23.679000000000002</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="O17" s="29">
+        <f t="shared" si="25"/>
+        <v>-23.067999999999998</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" si="25"/>
+        <v>-24.47</v>
+      </c>
       <c r="Q17" s="58"/>
     </row>
     <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10870,8 +10273,12 @@
       <c r="N18" s="23">
         <v>0</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="P18" s="24">
+        <v>1</v>
+      </c>
       <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -10879,59 +10286,65 @@
         <v>15</v>
       </c>
       <c r="B19" s="27">
-        <f t="shared" ref="B19:N19" si="21">B17-B18</f>
+        <f t="shared" ref="B19:N19" si="26">B17-B18</f>
         <v>-3.4950000000000045</v>
       </c>
       <c r="C19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-13.894999999999996</v>
       </c>
       <c r="D19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-12.931999999999995</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>7.4159999999999968</v>
       </c>
       <c r="F19" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-13.572000000000003</v>
       </c>
       <c r="G19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-11.99499999999999</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-101.00800000000001</v>
       </c>
       <c r="I19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-25.067999999999998</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-18.888999999999996</v>
       </c>
       <c r="K19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-18.861000000000004</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-17.309000000000012</v>
       </c>
       <c r="M19" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-20.997</v>
       </c>
       <c r="N19" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-23.679000000000002</v>
       </c>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
+      <c r="O19" s="26">
+        <f t="shared" ref="O19:P19" si="27">O17-O18</f>
+        <v>-23.067999999999998</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="27"/>
+        <v>-25.47</v>
+      </c>
       <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -10939,59 +10352,65 @@
         <v>16</v>
       </c>
       <c r="B20" s="32">
-        <f t="shared" ref="B20:D20" si="22">IFERROR(B19/B21,0)</f>
+        <f t="shared" ref="B20:D20" si="28">IFERROR(B19/B21,0)</f>
         <v>0</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.12856915612821118</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" ref="E20" si="23">IFERROR(E19/E21,0)</f>
+        <f t="shared" ref="E20" si="29">IFERROR(E19/E21,0)</f>
         <v>7.2562180779241078E-2</v>
       </c>
       <c r="F20" s="32">
-        <f t="shared" ref="F20:K20" si="24">IFERROR(F19/F21,0)</f>
+        <f t="shared" ref="F20:K20" si="30">IFERROR(F19/F21,0)</f>
         <v>-0.13409477137098369</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.1180343032581206</v>
       </c>
       <c r="H20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.97974703189260504</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.19981826007939163</v>
       </c>
       <c r="J20" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.14898332623475774</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.14386837428203117</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" ref="L20:M20" si="25">IFERROR(L19/L21,0)</f>
+        <f t="shared" ref="L20:M20" si="31">IFERROR(L19/L21,0)</f>
         <v>-0.12973609060314661</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.15556905659818182</v>
       </c>
       <c r="N20" s="32">
-        <f t="shared" ref="N20" si="26">IFERROR(N19/N21,0)</f>
+        <f t="shared" ref="N20:O20" si="32">IFERROR(N19/N21,0)</f>
         <v>-0.1729517715888424</v>
       </c>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
+      <c r="O20" s="31">
+        <f t="shared" si="32"/>
+        <v>-0.1662235096593816</v>
+      </c>
+      <c r="P20" s="31">
+        <f t="shared" ref="P20" si="33">IFERROR(P19/P21,0)</f>
+        <v>-0.18059475020207894</v>
+      </c>
       <c r="Q20" s="63"/>
     </row>
     <row r="21" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11033,8 +10452,12 @@
       <c r="N21" s="23">
         <v>136.911</v>
       </c>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="O21" s="58">
+        <v>138.77699999999999</v>
+      </c>
+      <c r="P21" s="58">
+        <v>141.03399999999999</v>
+      </c>
       <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
@@ -11052,59 +10475,65 @@
         <v>19</v>
       </c>
       <c r="B23" s="38">
-        <f t="shared" ref="B23:N23" si="27">IFERROR(B10/B8,0)</f>
+        <f t="shared" ref="B23:N23" si="34">IFERROR(B10/B8,0)</f>
         <v>0.70852382211810927</v>
       </c>
       <c r="C23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.71200343809559397</v>
       </c>
       <c r="D23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.70635882044513554</v>
       </c>
       <c r="E23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.72644355574265063</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.69118325896291732</v>
       </c>
       <c r="G23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.71782888860533378</v>
       </c>
       <c r="H23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.64399969327505557</v>
       </c>
       <c r="I23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.72030854383795562</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.7446132777785871</v>
       </c>
       <c r="K23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.74713530922689941</v>
       </c>
       <c r="L23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.75256250236393196</v>
       </c>
       <c r="M23" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.75901285517764816</v>
       </c>
       <c r="N23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.7740440718291508</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="O23" s="37">
+        <f t="shared" ref="O23:P23" si="35">IFERROR(O10/O8,0)</f>
+        <v>0.76898208728736217</v>
+      </c>
+      <c r="P23" s="37">
+        <f t="shared" si="35"/>
+        <v>0.77052049167443859</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -11112,59 +10541,65 @@
         <v>20</v>
       </c>
       <c r="B24" s="40">
-        <f t="shared" ref="B24:N24" si="28">IFERROR(B15/B8,0)</f>
+        <f t="shared" ref="B24:N24" si="36">IFERROR(B15/B8,0)</f>
         <v>-4.7134167075981497E-2</v>
       </c>
       <c r="C24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.14752046040584466</v>
       </c>
       <c r="D24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.10725198430635149</v>
       </c>
       <c r="E24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-9.7944292429663987E-2</v>
       </c>
       <c r="F24" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.12945581371493056</v>
       </c>
       <c r="G24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-6.3720173535791597E-2</v>
       </c>
       <c r="H24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-1.4417299286864507</v>
       </c>
       <c r="I24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.28069245716304536</v>
       </c>
       <c r="J24" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.24604828018239819</v>
       </c>
       <c r="K24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.21108878212379731</v>
       </c>
       <c r="L24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.19301032565528214</v>
       </c>
       <c r="M24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.23714482235188084</v>
       </c>
       <c r="N24" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.25694216280518895</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
+      <c r="O24" s="39">
+        <f t="shared" ref="O24:P24" si="37">IFERROR(O15/O8,0)</f>
+        <v>-0.23166668499356724</v>
+      </c>
+      <c r="P24" s="39">
+        <f t="shared" si="37"/>
+        <v>-0.23546301438765993</v>
+      </c>
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -11172,59 +10607,65 @@
         <v>21</v>
       </c>
       <c r="B25" s="40">
-        <f t="shared" ref="B25:N25" si="29">IFERROR(B18/B17,0)</f>
+        <f t="shared" ref="B25:N25" si="38">IFERROR(B18/B17,0)</f>
         <v>-0.40080160320641212</v>
       </c>
       <c r="C25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>6.7136623027861719E-2</v>
       </c>
       <c r="D25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-8.3808246731478409E-2</v>
       </c>
       <c r="E25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.5893197711379525</v>
       </c>
       <c r="F25" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J25" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>5.461794745753451E-2</v>
       </c>
       <c r="M25" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>4.5460744646997321E-2</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="39">
+        <f t="shared" ref="O25:P25" si="39">IFERROR(O18/O17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="39">
+        <f t="shared" si="39"/>
+        <v>-4.0866366979975484E-2</v>
+      </c>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
@@ -11236,7 +10677,6 @@
       <c r="I26" s="43"/>
       <c r="J26" s="64"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
@@ -11247,47 +10687,53 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34">
-        <f>IFERROR((F8/B8)-1,0)</f>
+        <f t="shared" ref="F27:Q27" si="40">IFERROR((F8/B8)-1,0)</f>
         <v>0.10497978614878911</v>
       </c>
       <c r="G27" s="33">
-        <f>IFERROR((G8/C8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.17149370305317824</v>
       </c>
       <c r="H27" s="33">
-        <f>IFERROR((H8/D8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.17892205608490475</v>
       </c>
       <c r="I27" s="33">
-        <f>IFERROR((I8/E8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.19153862344769523</v>
       </c>
       <c r="J27" s="34">
-        <f>IFERROR((J8/F8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.17353097057667011</v>
       </c>
       <c r="K27" s="33">
-        <f>IFERROR((K8/G8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.19846561184126554</v>
       </c>
       <c r="L27" s="33">
-        <f>IFERROR((L8/H8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.21642512077294684</v>
       </c>
       <c r="M27" s="33">
-        <f>IFERROR((M8/I8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.24130012365306475</v>
       </c>
       <c r="N27" s="34">
-        <f>IFERROR((N8/J8)-1,0)</f>
+        <f t="shared" si="40"/>
         <v>0.28589327078568183</v>
       </c>
       <c r="O27" s="33">
-        <f>IFERROR((O8/K8)-1,0)</f>
-        <v>0.19778011418837105</v>
-      </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+        <f t="shared" si="40"/>
+        <v>0.21030357071560712</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="40"/>
+        <v>0.20313425873394109</v>
+      </c>
+      <c r="Q27" s="33">
+        <f t="shared" si="40"/>
+        <v>0.17404297708837335</v>
+      </c>
     </row>
     <row r="28" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
@@ -11298,43 +10744,49 @@
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="36">
-        <f t="shared" ref="F28:N31" si="30">F11/B11-1</f>
+        <f t="shared" ref="F28:P31" si="41">F11/B11-1</f>
         <v>0.38461538461538458</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="J28" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.375</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-0.55769230769230771</v>
       </c>
       <c r="M28" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.25</v>
       </c>
       <c r="N28" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="35">
+        <f t="shared" si="41"/>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="P28" s="35">
+        <f t="shared" si="41"/>
+        <v>0.30434782608695654</v>
+      </c>
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11346,43 +10798,49 @@
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="I29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="J29" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.52941176470588225</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.5</v>
       </c>
       <c r="L29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-8.8235294117647078E-2</v>
       </c>
       <c r="M29" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.54166666666666674</v>
       </c>
       <c r="N29" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="35">
+        <f t="shared" si="41"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="41"/>
+        <v>0.41935483870967749</v>
+      </c>
       <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11394,43 +10852,49 @@
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="G30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-7.1428571428571397E-2</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>3.5454545454545459</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J30" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="K30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.53846153846153855</v>
       </c>
       <c r="L30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-0.58000000000000007</v>
       </c>
       <c r="M30" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-8.333333333333337E-2</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="35">
+        <f t="shared" si="41"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="41"/>
+        <v>4.7619047619047672E-2</v>
+      </c>
       <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11442,43 +10906,49 @@
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="G31" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>6.5217391304347894E-2</v>
       </c>
       <c r="H31" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>2.0222222222222221</v>
       </c>
       <c r="I31" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.44680851063829796</v>
       </c>
       <c r="J31" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.41666666666666674</v>
       </c>
       <c r="K31" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.46938775510204089</v>
       </c>
       <c r="L31" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-0.44852941176470584</v>
       </c>
       <c r="M31" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.23529411764705888</v>
       </c>
       <c r="N31" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.33823529411764697</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="O31" s="37">
+        <f t="shared" si="41"/>
+        <v>0.26388888888888884</v>
+      </c>
+      <c r="P31" s="37">
+        <f t="shared" si="41"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11500,41 +10970,47 @@
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="26">
-        <f t="shared" ref="E33" si="31">E34-E35</f>
+        <f t="shared" ref="E33" si="42">E34-E35</f>
         <v>-283</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="50"/>
       <c r="H33" s="26">
-        <f t="shared" ref="H33" si="32">H34-H35</f>
+        <f t="shared" ref="H33" si="43">H34-H35</f>
         <v>-60</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" ref="I33:J33" si="33">I34-I35</f>
+        <f t="shared" ref="I33:J33" si="44">I34-I35</f>
         <v>-64</v>
       </c>
       <c r="J33" s="27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>-51</v>
       </c>
       <c r="K33" s="26">
-        <f t="shared" ref="K33:L33" si="34">K34-K35</f>
+        <f t="shared" ref="K33:L33" si="45">K34-K35</f>
         <v>-62</v>
       </c>
       <c r="L33" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-100</v>
       </c>
       <c r="M33" s="26">
-        <f t="shared" ref="M33" si="35">M34-M35</f>
+        <f t="shared" ref="M33" si="46">M34-M35</f>
         <v>-85</v>
       </c>
       <c r="N33" s="27">
-        <f t="shared" ref="N33" si="36">N34-N35</f>
+        <f t="shared" ref="N33:O33" si="47">N34-N35</f>
         <v>-70</v>
       </c>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
+      <c r="O33" s="26">
+        <f t="shared" si="47"/>
+        <v>-38</v>
+      </c>
+      <c r="P33" s="26">
+        <f t="shared" ref="P33" si="48">P34-P35</f>
+        <v>-8</v>
+      </c>
       <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11569,6 +11045,12 @@
       </c>
       <c r="N34" s="23">
         <v>145</v>
+      </c>
+      <c r="O34" s="24">
+        <v>177</v>
+      </c>
+      <c r="P34" s="24">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -11611,6 +11093,14 @@
       <c r="N35" s="23">
         <f>2+213</f>
         <v>215</v>
+      </c>
+      <c r="O35" s="24">
+        <f>2+213</f>
+        <v>215</v>
+      </c>
+      <c r="P35" s="24">
+        <f>2+212</f>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -11661,6 +11151,14 @@
         <f>30+461</f>
         <v>491</v>
       </c>
+      <c r="O37" s="24">
+        <f>26+463</f>
+        <v>489</v>
+      </c>
+      <c r="P37" s="24">
+        <f>24+466</f>
+        <v>490</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
@@ -11695,6 +11193,12 @@
       <c r="N38" s="23">
         <v>807</v>
       </c>
+      <c r="O38" s="24">
+        <v>837</v>
+      </c>
+      <c r="P38" s="24">
+        <v>857</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
@@ -11728,6 +11232,12 @@
       </c>
       <c r="N39" s="23">
         <v>500</v>
+      </c>
+      <c r="O39" s="24">
+        <v>516</v>
+      </c>
+      <c r="P39" s="24">
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -11745,38 +11255,46 @@
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="29">
-        <f t="shared" ref="E41" si="37">E38-E34-E37</f>
+        <f t="shared" ref="E41" si="49">E38-E34-E37</f>
         <v>192</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="50"/>
       <c r="H41" s="29">
-        <f t="shared" ref="H41" si="38">H38-H34-H37</f>
+        <f t="shared" ref="H41" si="50">H38-H34-H37</f>
         <v>186</v>
       </c>
       <c r="I41" s="29">
-        <f t="shared" ref="I41:N41" si="39">I38-I34-I37</f>
+        <f t="shared" ref="I41:N41" si="51">I38-I34-I37</f>
         <v>179</v>
       </c>
       <c r="J41" s="30">
-        <f t="shared" ref="J41" si="40">J38-J34-J37</f>
+        <f t="shared" ref="J41" si="52">J38-J34-J37</f>
         <v>177</v>
       </c>
       <c r="K41" s="29">
-        <f t="shared" ref="K41" si="41">K38-K34-K37</f>
+        <f t="shared" ref="K41" si="53">K38-K34-K37</f>
         <v>175</v>
       </c>
       <c r="L41" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>175</v>
       </c>
       <c r="M41" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>177</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>171</v>
+      </c>
+      <c r="O41" s="29">
+        <f t="shared" ref="O41:P41" si="54">O38-O34-O37</f>
+        <v>171</v>
+      </c>
+      <c r="P41" s="29">
+        <f t="shared" si="54"/>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -11787,21 +11305,21 @@
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="29">
-        <f t="shared" ref="E42" si="42">E38-E39</f>
+        <f t="shared" ref="E42" si="55">E38-E39</f>
         <v>40</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="50"/>
       <c r="H42" s="29">
-        <f t="shared" ref="H42" si="43">H38-H39</f>
+        <f t="shared" ref="H42" si="56">H38-H39</f>
         <v>227</v>
       </c>
       <c r="I42" s="29">
-        <f t="shared" ref="I42:J42" si="44">I38-I39</f>
+        <f t="shared" ref="I42:J42" si="57">I38-I39</f>
         <v>219</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>235</v>
       </c>
       <c r="K42" s="29">
@@ -11817,8 +11335,16 @@
         <v>302</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" ref="N42" si="45">N38-N39</f>
+        <f t="shared" ref="N42" si="58">N38-N39</f>
         <v>307</v>
+      </c>
+      <c r="O42" s="29">
+        <f>O38-O39</f>
+        <v>321</v>
+      </c>
+      <c r="P42" s="29">
+        <f>P38-P39</f>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -11836,41 +11362,47 @@
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="26">
-        <f t="shared" ref="E44" si="46">SUM(B19:E19)</f>
+        <f t="shared" ref="E44" si="59">SUM(B19:E19)</f>
         <v>-22.905999999999999</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="50"/>
       <c r="H44" s="26">
-        <f t="shared" ref="H44:M44" si="47">SUM(E19:H19)</f>
+        <f t="shared" ref="H44:P44" si="60">SUM(E19:H19)</f>
         <v>-119.15900000000001</v>
       </c>
       <c r="I44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>-151.643</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" ref="J44" si="48">SUM(G19:J19)</f>
+        <f t="shared" ref="J44" si="61">SUM(G19:J19)</f>
         <v>-156.95999999999998</v>
       </c>
       <c r="K44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>-163.82600000000002</v>
       </c>
       <c r="L44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>-80.12700000000001</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>-76.056000000000012</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" ref="N44" si="49">SUM(K19:N19)</f>
+        <f t="shared" ref="N44" si="62">SUM(K19:N19)</f>
         <v>-80.846000000000018</v>
       </c>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="O44" s="26">
+        <f t="shared" si="60"/>
+        <v>-85.053000000000011</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" si="60"/>
+        <v>-93.213999999999999</v>
+      </c>
       <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -11881,38 +11413,46 @@
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="37">
-        <f t="shared" ref="E45" si="50">E44/E42</f>
+        <f t="shared" ref="E45" si="63">E44/E42</f>
         <v>-0.57264999999999999</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="50"/>
       <c r="H45" s="37">
-        <f t="shared" ref="H45" si="51">H44/H42</f>
+        <f t="shared" ref="H45" si="64">H44/H42</f>
         <v>-0.52492951541850219</v>
       </c>
       <c r="I45" s="37">
-        <f t="shared" ref="I45:N45" si="52">I44/I42</f>
+        <f t="shared" ref="I45:N45" si="65">I44/I42</f>
         <v>-0.69243378995433791</v>
       </c>
       <c r="J45" s="38">
-        <f t="shared" ref="J45" si="53">J44/J42</f>
+        <f t="shared" ref="J45" si="66">J44/J42</f>
         <v>-0.66791489361702117</v>
       </c>
       <c r="K45" s="37">
-        <f t="shared" ref="K45" si="54">K44/K42</f>
+        <f t="shared" ref="K45" si="67">K44/K42</f>
         <v>-0.56687197231833919</v>
       </c>
       <c r="L45" s="37">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>-0.27069932432432436</v>
       </c>
       <c r="M45" s="37">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>-0.25184105960264902</v>
       </c>
       <c r="N45" s="38">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>-0.26334201954397402</v>
+      </c>
+      <c r="O45" s="37">
+        <f t="shared" ref="O45:P45" si="68">O44/O42</f>
+        <v>-0.26496261682242994</v>
+      </c>
+      <c r="P45" s="37">
+        <f t="shared" si="68"/>
+        <v>-0.28161329305135951</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -11923,38 +11463,46 @@
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="37">
-        <f t="shared" ref="E46" si="55">E44/E38</f>
+        <f t="shared" ref="E46" si="69">E44/E38</f>
         <v>-3.9629757785467123E-2</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="50"/>
       <c r="H46" s="37">
-        <f t="shared" ref="H46" si="56">H44/H38</f>
+        <f t="shared" ref="H46" si="70">H44/H38</f>
         <v>-0.15083417721518988</v>
       </c>
       <c r="I46" s="37">
-        <f t="shared" ref="I46:N46" si="57">I44/I38</f>
+        <f t="shared" ref="I46:N46" si="71">I44/I38</f>
         <v>-0.22333284241531665</v>
       </c>
       <c r="J46" s="38">
-        <f t="shared" ref="J46" si="58">J44/J38</f>
+        <f t="shared" ref="J46" si="72">J44/J38</f>
         <v>-0.22813953488372091</v>
       </c>
       <c r="K46" s="37">
-        <f t="shared" ref="K46" si="59">K44/K38</f>
+        <f t="shared" ref="K46" si="73">K44/K38</f>
         <v>-0.21527726675427072</v>
       </c>
       <c r="L46" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="71"/>
         <v>-0.10168401015228427</v>
       </c>
       <c r="M46" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="71"/>
         <v>-9.4597014925373146E-2</v>
       </c>
       <c r="N46" s="38">
-        <f t="shared" si="57"/>
+        <f t="shared" si="71"/>
         <v>-0.10018091697645604</v>
+      </c>
+      <c r="O46" s="37">
+        <f t="shared" ref="O46:P46" si="74">O44/O38</f>
+        <v>-0.10161648745519715</v>
+      </c>
+      <c r="P46" s="37">
+        <f t="shared" si="74"/>
+        <v>-0.10876779463243874</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -11965,38 +11513,46 @@
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="37">
-        <f t="shared" ref="E47" si="60">E44/(E42-E37)</f>
+        <f t="shared" ref="E47" si="75">E44/(E42-E37)</f>
         <v>7.3652733118971053E-2</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="50"/>
       <c r="H47" s="37">
-        <f t="shared" ref="H47" si="61">H44/(H42-H37)</f>
+        <f t="shared" ref="H47" si="76">H44/(H42-H37)</f>
         <v>0.99299166666666672</v>
       </c>
       <c r="I47" s="37">
-        <f t="shared" ref="I47:N47" si="62">I44/(I42-I37)</f>
+        <f t="shared" ref="I47:N47" si="77">I44/(I42-I37)</f>
         <v>1.1940393700787402</v>
       </c>
       <c r="J47" s="38">
-        <f t="shared" ref="J47" si="63">J44/(J42-J37)</f>
+        <f t="shared" ref="J47" si="78">J44/(J42-J37)</f>
         <v>1.4269090909090907</v>
       </c>
       <c r="K47" s="37">
-        <f t="shared" ref="K47" si="64">K44/(K42-K37)</f>
+        <f t="shared" ref="K47" si="79">K44/(K42-K37)</f>
         <v>1.1537042253521128</v>
       </c>
       <c r="L47" s="37">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>0.39864179104477615</v>
       </c>
       <c r="M47" s="37">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>0.39204123711340211</v>
       </c>
       <c r="N47" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="77"/>
         <v>0.4393804347826088</v>
+      </c>
+      <c r="O47" s="37">
+        <f t="shared" ref="O47:P47" si="80">O44/(O42-O37)</f>
+        <v>0.50626785714285716</v>
+      </c>
+      <c r="P47" s="37">
+        <f t="shared" si="80"/>
+        <v>0.58625157232704406</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -12007,38 +11563,46 @@
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="37">
-        <f t="shared" ref="E48" si="65">E44/E41</f>
+        <f t="shared" ref="E48" si="81">E44/E41</f>
         <v>-0.11930208333333332</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="50"/>
       <c r="H48" s="37">
-        <f t="shared" ref="H48" si="66">H44/H41</f>
+        <f t="shared" ref="H48" si="82">H44/H41</f>
         <v>-0.64063978494623663</v>
       </c>
       <c r="I48" s="37">
-        <f t="shared" ref="I48:N48" si="67">I44/I41</f>
+        <f t="shared" ref="I48:N48" si="83">I44/I41</f>
         <v>-0.8471675977653631</v>
       </c>
       <c r="J48" s="38">
-        <f t="shared" ref="J48" si="68">J44/J41</f>
+        <f t="shared" ref="J48" si="84">J44/J41</f>
         <v>-0.88677966101694905</v>
       </c>
       <c r="K48" s="37">
-        <f t="shared" ref="K48" si="69">K44/K41</f>
+        <f t="shared" ref="K48" si="85">K44/K41</f>
         <v>-0.93614857142857155</v>
       </c>
       <c r="L48" s="37">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>-0.45786857142857146</v>
       </c>
       <c r="M48" s="37">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>-0.42969491525423736</v>
       </c>
       <c r="N48" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>-0.47278362573099425</v>
+      </c>
+      <c r="O48" s="37">
+        <f t="shared" ref="O48:P48" si="86">O44/O41</f>
+        <v>-0.49738596491228076</v>
+      </c>
+      <c r="P48" s="37">
+        <f t="shared" si="86"/>
+        <v>-0.57896894409937882</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -12050,91 +11614,103 @@
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
-        <f t="shared" ref="F50:N50" si="70">F3/B3-1</f>
+        <f t="shared" ref="F50:P50" si="87">F3/B3-1</f>
         <v>0.10497978614878911</v>
       </c>
       <c r="G50" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.17149370305317824</v>
       </c>
       <c r="H50" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.17892205608490475</v>
       </c>
       <c r="I50" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.19153862344769523</v>
       </c>
       <c r="J50" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.17353097057667011</v>
       </c>
       <c r="K50" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.19846561184126577</v>
       </c>
       <c r="L50" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.21642512077294684</v>
       </c>
       <c r="M50" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.24130012365306475</v>
       </c>
       <c r="N50" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>0.28589327078568183</v>
       </c>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="O50" s="37">
+        <f t="shared" si="87"/>
+        <v>0.21030357071560712</v>
+      </c>
+      <c r="P50" s="37">
+        <f t="shared" si="87"/>
+        <v>0.20313425873394109</v>
+      </c>
       <c r="Q50" s="37"/>
     </row>
     <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="38">
-        <f>F5/B5-1</f>
+        <f t="shared" ref="F52:P53" si="88">F5/B5-1</f>
         <v>2.4256711409396114E-2</v>
       </c>
       <c r="G52" s="37">
-        <f>G5/C5-1</f>
+        <f t="shared" si="88"/>
         <v>3.0285953177257463E-2</v>
       </c>
       <c r="H52" s="37">
-        <f>H5/D5-1</f>
+        <f t="shared" si="88"/>
         <v>3.5118333333333362E-2</v>
       </c>
       <c r="I52" s="37">
-        <f>I5/E5-1</f>
+        <f t="shared" si="88"/>
         <v>6.707068573795083E-2</v>
       </c>
       <c r="J52" s="38">
-        <f>J5/F5-1</f>
+        <f t="shared" si="88"/>
         <v>9.8950458427047083E-2</v>
       </c>
       <c r="K52" s="37">
-        <f>K5/G5-1</f>
+        <f t="shared" si="88"/>
         <v>0.12391273650364965</v>
       </c>
       <c r="L52" s="37">
-        <f>L5/H5-1</f>
+        <f t="shared" si="88"/>
         <v>0.14836628984447819</v>
       </c>
       <c r="M52" s="37">
-        <f>M5/I5-1</f>
+        <f t="shared" si="88"/>
         <v>0.11472228621968772</v>
       </c>
       <c r="N52" s="38">
-        <f>N5/J5-1</f>
+        <f t="shared" si="88"/>
         <v>0.11227048185766964</v>
       </c>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+      <c r="O52" s="37">
+        <f t="shared" si="88"/>
+        <v>0.12787112519947152</v>
+      </c>
+      <c r="P52" s="37">
+        <f t="shared" si="88"/>
+        <v>0.12588454846140795</v>
+      </c>
       <c r="Q52" s="37"/>
     </row>
     <row r="53" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -12146,48 +11722,54 @@
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
-        <f>F6/B6-1</f>
+        <f t="shared" si="88"/>
         <v>7.8811370079593157E-2</v>
       </c>
       <c r="G53" s="37">
-        <f>G6/C6-1</f>
+        <f t="shared" si="88"/>
         <v>0.137056852459704</v>
       </c>
       <c r="H53" s="37">
-        <f>H6/D6-1</f>
+        <f t="shared" si="88"/>
         <v>0.13892491140456209</v>
       </c>
       <c r="I53" s="37">
-        <f>I6/E6-1</f>
+        <f t="shared" si="88"/>
         <v>0.11664451040904233</v>
       </c>
       <c r="J53" s="38">
-        <f>J6/F6-1</f>
+        <f t="shared" si="88"/>
         <v>6.7865217742728579E-2</v>
       </c>
       <c r="K53" s="37">
-        <f>K6/G6-1</f>
+        <f t="shared" si="88"/>
         <v>6.6333330797140544E-2</v>
       </c>
       <c r="L53" s="37">
-        <f>L6/H6-1</f>
+        <f t="shared" si="88"/>
         <v>5.9265786126206699E-2</v>
       </c>
       <c r="M53" s="37">
-        <f>M6/I6-1</f>
+        <f t="shared" si="88"/>
         <v>0.1135510063790286</v>
       </c>
       <c r="N53" s="38">
-        <f>N6/J6-1</f>
+        <f t="shared" si="88"/>
         <v>0.15609763250934638</v>
       </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="O53" s="37">
+        <f t="shared" si="88"/>
+        <v>7.3086759359636266E-2</v>
+      </c>
+      <c r="P53" s="37">
+        <f t="shared" si="88"/>
+        <v>6.8612461533555713E-2</v>
+      </c>
       <c r="Q53" s="37"/>
     </row>
     <row r="55" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="78" t="s">
-        <v>86</v>
+      <c r="A55" s="77" t="s">
+        <v>80</v>
       </c>
       <c r="B55" s="23">
         <v>596000</v>
@@ -12228,8 +11810,12 @@
       <c r="N55" s="23">
         <v>746180</v>
       </c>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
+      <c r="O55" s="24">
+        <v>781000</v>
+      </c>
+      <c r="P55" s="24">
+        <v>803000</v>
+      </c>
       <c r="Q55" s="24"/>
     </row>
   </sheetData>
@@ -12245,8 +11831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12260,39 +11846,39 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>95</v>
+      <c r="B6" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
